--- a/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +565,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1291,7 +1297,6 @@
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1409,7 +1414,6 @@
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1641,7 +1645,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1751,7 +1754,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1861,7 +1863,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1971,7 +1972,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2081,7 +2081,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2191,7 +2190,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2301,7 +2299,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2411,7 +2408,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2521,7 +2517,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2631,7 +2626,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2741,7 +2735,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2851,7 +2844,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2961,7 +2953,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3071,7 +3062,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3181,7 +3171,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3291,7 +3280,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3401,7 +3389,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3511,7 +3498,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3621,7 +3607,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3731,7 +3716,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3841,7 +3825,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3951,7 +3934,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4061,7 +4043,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4167,7 +4148,6 @@
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4273,7 +4253,6 @@
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4379,7 +4358,6 @@
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4485,7 +4463,6 @@
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4591,7 +4568,6 @@
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4697,7 +4673,6 @@
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4803,7 +4778,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4909,7 +4883,6 @@
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5015,7 +4988,6 @@
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5121,7 +5093,6 @@
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5227,7 +5198,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5333,7 +5303,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5439,7 +5408,6 @@
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5545,7 +5513,6 @@
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5651,7 +5618,6 @@
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5757,7 +5723,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5863,7 +5828,6 @@
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5969,7 +5933,6 @@
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6075,7 +6038,6 @@
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6181,7 +6143,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6287,7 +6248,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6393,7 +6353,6 @@
           <t>AJT Construction</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6499,7 +6458,6 @@
           <t>AJT Construction</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6605,7 +6563,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6711,7 +6668,6 @@
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6821,7 +6777,6 @@
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6931,7 +6886,6 @@
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7041,7 +6995,6 @@
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7151,7 +7104,6 @@
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7261,7 +7213,6 @@
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7371,7 +7322,79 @@
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA63" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -565,7 +565,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -608,11 +633,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -620,11 +640,6 @@
       </c>
       <c r="K2" t="n">
         <v>3656520.52</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M2" t="n">
         <v>3601234.72</v>
@@ -730,11 +745,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -742,11 +752,6 @@
       </c>
       <c r="K3" t="n">
         <v>3196585.16</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M3" t="n">
         <v>3001865.23</v>
@@ -852,11 +857,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -864,11 +864,6 @@
       </c>
       <c r="K4" t="n">
         <v>4139595.02</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M4" t="n">
         <v>4113576.02</v>
@@ -974,11 +969,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -986,11 +976,6 @@
       </c>
       <c r="K5" t="n">
         <v>4139595.02</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M5" t="n">
         <v>4113576.02</v>
@@ -1096,11 +1081,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1108,11 +1088,6 @@
       </c>
       <c r="K6" t="n">
         <v>4139595.02</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M6" t="n">
         <v>4077553.98</v>
@@ -1218,11 +1193,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
@@ -1230,11 +1200,6 @@
       </c>
       <c r="K7" t="n">
         <v>2812007.03</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M7" t="n">
         <v>2806210.33</v>
@@ -1335,11 +1300,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
@@ -1347,11 +1307,6 @@
       </c>
       <c r="K8" t="n">
         <v>2859772.23</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M8" t="n">
         <v>2854537.14</v>
@@ -1452,11 +1407,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 1A - with Roofing, with Counter, with Tile Finish)</t>
@@ -1464,11 +1414,6 @@
       </c>
       <c r="K9" t="n">
         <v>282032.21</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M9" t="n">
         <v>250149.56</v>
@@ -7325,7 +7270,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA63" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF63" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF63"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6712 +567,6821 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>500675</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Kauswagan Integrated School</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>3656520.52</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="n">
         <v>3601234.72</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>July 17, 2024</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-005</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-005</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>November 14, 2023</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>May 06, 2024</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>May 17, 2024</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
+      <c r="AA2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>126028</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Cabunbata Elementary School</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>3196585.16</v>
       </c>
-      <c r="M3" t="n">
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="n">
         <v>3001865.23</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="3" t="n">
         <v>0.99</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>INFRAEPA2024-03</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>INFRAEPA2024-03</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>November 15, 2023</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>AL-QATANI ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="3" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
+      <c r="AA3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>303715</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Piñan National High School</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>PIÑAN (NEW PIÑAN)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="M4" t="n">
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="n">
         <v>4113576.02</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>September 27, 0204</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>2024-03-CBZN</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>CB-2024-015</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>December 12, 2023</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>January 05, 2024</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>YSL Builder</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="3" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
+      <c r="AA4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>303739</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Sindangan National High School</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Sindangan</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="M5" t="n">
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="n">
         <v>4113576.02</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="O5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>2024-10-CBZN</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>CB-2024-016</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>December 07, 2024</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
         <is>
           <t>December 22, 2023</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>YSL Builder</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="3" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
+      <c r="AA5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>303706</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Liloy National High School</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>LILOY</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="M6" t="n">
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="n">
         <v>4077553.98</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>August 30, 2024</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>2024-11-CBZN</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>CB-2024-017</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>December 07, 2024</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="3" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
+      <c r="AA6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>303803</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Mahayag School of Arts and Trade (Mahayag NHS)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>MAHAYAG</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3" t="n">
         <v>2812007.03</v>
       </c>
-      <c r="M7" t="n">
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="n">
         <v>2806210.33</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>ZDS-24-HF-01</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>ZDS-24-HF-01</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
         <is>
           <t>December 29, 2024</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>CPIN BUILDERS</t>
         </is>
       </c>
+      <c r="Z7" s="3" t="inlineStr"/>
+      <c r="AA7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>303768</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>Tabina National High School</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>TABINA</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="3" t="n">
         <v>2859772.23</v>
       </c>
-      <c r="M8" t="n">
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="n">
         <v>2854537.14</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="O8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>ZDS-24-HF-02</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>ZDS-24-HF-02</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
         <is>
           <t>December 29, 2024</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
+      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="AA8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>125628</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Pangi Elementary School</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>Ipil</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 1A - with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="3" t="n">
         <v>282032.21</v>
       </c>
-      <c r="M9" t="n">
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="n">
         <v>250149.56</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="O9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>August 23, 2024</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>November 22, 2024</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>ZSY-2024HEALTH-01</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>ZSY-2024HEALTH-01</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>November 22, 2023</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>November 29, 2023</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="3" t="inlineStr">
         <is>
           <t>February 28, 2024</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>AAFIAH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" s="3" t="inlineStr">
         <is>
           <t>Rectification of Punchlisted Items</t>
         </is>
       </c>
+      <c r="AA9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>124533</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Alvenda ES</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="O10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z10" s="3" t="inlineStr"/>
+      <c r="AA10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>124534</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Buena Suerte ES</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z11" s="3" t="inlineStr"/>
+      <c r="AA11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>124535</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Delampinas ES</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="O12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z12" s="3" t="inlineStr"/>
+      <c r="AA12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3" t="n">
         <v>124539</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Juan C. Dumaog Sr. ES</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="O13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z13" s="3" t="inlineStr"/>
+      <c r="AA13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>124540</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Mutia CS</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr">
+      <c r="O14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z14" s="3" t="inlineStr"/>
+      <c r="AA14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>124544</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Tinglan ES</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="O15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U15" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V15" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X15" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z15" s="3" t="inlineStr"/>
+      <c r="AA15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="3" t="n">
         <v>124545</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Totongon ES</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="inlineStr">
+      <c r="O16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V16" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z16" s="3" t="inlineStr"/>
+      <c r="AA16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="3" t="n">
         <v>124546</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Tubak ES</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="inlineStr">
+      <c r="O17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V17" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z17" s="3" t="inlineStr"/>
+      <c r="AA17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="3" t="n">
         <v>314119</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>Mutia NHS Extension - Alvenda</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="inlineStr">
+      <c r="O18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V18" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X18" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y18" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z18" s="3" t="inlineStr"/>
+      <c r="AA18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="3" t="n">
         <v>303714</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>Mutia NHS Annex - Tubak</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="3" t="n">
         <v>108064.83</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="3" t="n">
         <v>108064.83</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="inlineStr">
+      <c r="O19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R19" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V19" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X19" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z19" s="3" t="inlineStr"/>
+      <c r="AA19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="3" t="n">
         <v>124738</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>Bagacay ES</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="inlineStr">
+      <c r="O20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R20" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="V20" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W20" t="n">
+      <c r="W20" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X20" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z20" s="3" t="inlineStr"/>
+      <c r="AA20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="3" t="n">
         <v>124741</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>Calube ES</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="inlineStr">
+      <c r="O21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R21" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="V21" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="X21" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y21" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z21" s="3" t="inlineStr"/>
+      <c r="AA21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="3" t="n">
         <v>124743</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>Kanim ES</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="inlineStr">
+      <c r="O22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R22" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="V22" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W22" t="n">
+      <c r="W22" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X22" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y22" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z22" s="3" t="inlineStr"/>
+      <c r="AA22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="3" t="n">
         <v>124744</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>Libay ES</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="inlineStr">
+      <c r="O23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R23" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S23" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="V23" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W23" t="n">
+      <c r="W23" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X23" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Y23" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z23" s="3" t="inlineStr"/>
+      <c r="AA23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="3" t="n">
         <v>124745</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>Magsaysay ES</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="inlineStr">
+      <c r="O24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R24" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T24" t="n">
+      <c r="T24" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U24" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="V24" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W24" t="n">
+      <c r="W24" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="X24" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Y24" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z24" s="3" t="inlineStr"/>
+      <c r="AA24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="3" t="n">
         <v>124746</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Marapong ES</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="inlineStr">
+      <c r="O25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R25" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T25" t="n">
+      <c r="T25" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="V25" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W25" t="n">
+      <c r="W25" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="X25" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Y25" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z25" s="3" t="inlineStr"/>
+      <c r="AA25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="3" t="n">
         <v>124748</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>Oyan ES</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N26" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="inlineStr">
+      <c r="O26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R26" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U26" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W26" t="n">
+      <c r="W26" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="X26" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Y26" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z26" s="3" t="inlineStr"/>
+      <c r="AA26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="3" t="n">
         <v>124750</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>Sawang ES</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="inlineStr">
+      <c r="O27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R27" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="S27" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U27" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W27" t="n">
+      <c r="W27" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z27" s="3" t="inlineStr"/>
+      <c r="AA27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="3" t="n">
         <v>124751</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>Sibutad CS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="3" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="inlineStr">
+      <c r="O28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R28" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S28" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T28" t="n">
+      <c r="T28" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="U28" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="V28" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W28" t="n">
+      <c r="W28" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="X28" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Y28" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z28" s="3" t="inlineStr"/>
+      <c r="AA28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="3" t="n">
         <v>124753</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>Sipaloc ES</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="G29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" s="3" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="inlineStr">
+      <c r="O29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R29" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S29" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T29" t="n">
+      <c r="T29" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U29" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V29" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W29" t="n">
+      <c r="W29" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y29" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z29" s="3" t="inlineStr"/>
+      <c r="AA29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="3" t="n">
         <v>303694</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>Kanim NHS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="G30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="inlineStr">
+      <c r="O30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R30" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T30" t="n">
+      <c r="T30" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="U30" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W30" t="n">
+      <c r="W30" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="X30" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Y30" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z30" s="3" t="inlineStr"/>
+      <c r="AA30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="3" t="n">
         <v>303695</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>Sawang NHS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="G31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="inlineStr">
+      <c r="O31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R31" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T31" t="n">
+      <c r="T31" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="U31" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W31" t="n">
+      <c r="W31" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="X31" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y31" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z31" s="3" t="inlineStr"/>
+      <c r="AA31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="3" t="n">
         <v>303737</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>Sibutad NHS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" s="3" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="inlineStr">
+      <c r="O32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" s="3" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R32" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="3" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T32" t="n">
+      <c r="T32" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U32" s="3" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" s="3" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W32" t="n">
+      <c r="W32" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="X32" s="3" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y32" s="3" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
+      <c r="Z32" s="3" t="inlineStr"/>
+      <c r="AA32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="3" t="n">
         <v>501159</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>Bogo Calabat IS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="3" t="n">
         <v>259557.41</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" s="3" t="n">
         <v>259557.41</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="O33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R33" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S33" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="T33" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U33" t="n">
+      <c r="U33" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="V33" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="W33" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X33" t="n">
+      <c r="X33" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Y33" s="3" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
+      <c r="Z33" s="3" t="inlineStr"/>
+      <c r="AA33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="3" t="n">
         <v>125078</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>Dawa ES</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="3" t="n">
         <v>259399.91</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" s="3" t="n">
         <v>259399.91</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N34" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="O34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="R34" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="T34" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U34" t="n">
+      <c r="U34" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="V34" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="W34" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X34" t="n">
+      <c r="X34" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Y34" s="3" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
+      <c r="Z34" s="3" t="inlineStr"/>
+      <c r="AA34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="3" t="n">
         <v>125080</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>Josefina CES</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="3" t="n">
         <v>257509.91</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" s="3" t="n">
         <v>257509.91</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N35" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="O35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="R35" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="T35" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U35" t="n">
+      <c r="U35" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="V35" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="W35" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X35" t="n">
+      <c r="X35" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Y35" s="3" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
+      <c r="Z35" s="3" t="inlineStr"/>
+      <c r="AA35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="3" t="n">
         <v>125090</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>Upper Bag-ong Tudela ES</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="3" t="n">
         <v>259452.41</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" s="3" t="n">
         <v>259452.41</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="O36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R36" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="T36" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U36" t="n">
+      <c r="U36" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="V36" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="W36" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X36" t="n">
+      <c r="X36" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Y36" s="3" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
+      <c r="Z36" s="3" t="inlineStr"/>
+      <c r="AA36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="3" t="n">
         <v>125385</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>Lumangoy ES</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="3" t="n">
         <v>258874.91</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" s="3" t="n">
         <v>258874.91</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="O37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="R37" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="T37" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U37" t="n">
+      <c r="U37" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="V37" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="W37" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X37" t="n">
+      <c r="X37" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Y37" s="3" t="inlineStr">
         <is>
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
+      <c r="Z37" s="3" t="inlineStr"/>
+      <c r="AA37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="3" t="n">
         <v>125386</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>New Carmen ES</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="3" t="n">
         <v>258822.41</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" s="3" t="n">
         <v>258822.41</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N38" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" t="n">
+      <c r="O38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R38" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="S38" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="T38" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U38" t="n">
+      <c r="U38" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="V38" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="W38" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X38" t="n">
+      <c r="X38" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Y38" s="3" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
+      <c r="Z38" s="3" t="inlineStr"/>
+      <c r="AA38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="3" t="n">
         <v>196032</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>Sominot CES-SPED</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="K39" s="3" t="n">
         <v>256774.91</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="M39" s="3" t="n">
         <v>256774.91</v>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="O39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="R39" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S39" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="T39" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U39" t="n">
+      <c r="U39" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="V39" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="W39" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X39" t="n">
+      <c r="X39" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Y39" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z39" s="3" t="inlineStr"/>
+      <c r="AA39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="3" t="n">
         <v>125395</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>Tungawan ES</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="G40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="3" t="n">
         <v>256722.41</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" s="3" t="n">
         <v>256722.41</v>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N40" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="O40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="R40" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="T40" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U40" t="n">
+      <c r="U40" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="V40" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="W40" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X40" t="n">
+      <c r="X40" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Y40" s="3" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
+      <c r="Z40" s="3" t="inlineStr"/>
+      <c r="AA40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="3" t="n">
         <v>125396</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>Upper Sicpao ES</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" s="3" t="n">
         <v>256732.91</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" s="3" t="n">
         <v>256732.91</v>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N41" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
+      <c r="O41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="R41" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="T41" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U41" t="n">
+      <c r="U41" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="V41" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="W41" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X41" t="n">
+      <c r="X41" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Y41" s="3" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
+      <c r="Z41" s="3" t="inlineStr"/>
+      <c r="AA41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="3" t="n">
         <v>125394</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>Eastern Sominot ES</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="G42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="3" t="n">
         <v>256738.16</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" s="3" t="n">
         <v>256738.16</v>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="n">
+      <c r="O42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="R42" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="T42" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U42" t="n">
+      <c r="U42" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="V42" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="W42" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X42" t="n">
+      <c r="X42" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="Y42" s="3" t="inlineStr">
         <is>
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
+      <c r="Z42" s="3" t="inlineStr"/>
+      <c r="AA42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="3" t="n">
         <v>125393</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>Sominot CES</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="G43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="3" t="n">
         <v>256774.91</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" s="3" t="n">
         <v>256774.91</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N43" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="O43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="R43" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="S43" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="T43" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U43" t="n">
+      <c r="U43" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="V43" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="W43" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X43" t="n">
+      <c r="X43" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="Y43" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z43" s="3" t="inlineStr"/>
+      <c r="AA43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="3" t="n">
         <v>125457</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>Limas ES</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="3" t="n">
         <v>258454.91</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" s="3" t="n">
         <v>258454.91</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N44" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
+      <c r="O44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="R44" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="S44" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="T44" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U44" t="n">
+      <c r="U44" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="V44" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="W44" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X44" t="n">
+      <c r="X44" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Y44" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z44" s="3" t="inlineStr"/>
+      <c r="AA44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="3" t="n">
         <v>125459</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>Maragang ES</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="3" t="n">
         <v>256144.91</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" s="3" t="n">
         <v>256144.91</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N45" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
+      <c r="O45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="R45" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="S45" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="T45" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U45" t="n">
+      <c r="U45" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="V45" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="W45" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X45" t="n">
+      <c r="X45" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="Y45" s="3" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
+      <c r="Z45" s="3" t="inlineStr"/>
+      <c r="AA45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="3" t="n">
         <v>125463</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>Nilo ES</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="3" t="n">
         <v>256165.91</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" s="3" t="n">
         <v>256165.91</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N46" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="O46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="R46" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="T46" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U46" t="n">
+      <c r="U46" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="V46" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="W46" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X46" t="n">
+      <c r="X46" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Y46" s="3" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
+      <c r="Z46" s="3" t="inlineStr"/>
+      <c r="AA46" s="3" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="3" t="n">
         <v>125464</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>Tigbao CES</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="3" t="n">
         <v>256176.41</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" s="3" t="n">
         <v>256176.41</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N47" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" t="n">
+      <c r="O47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="R47" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S47" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="T47" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U47" t="n">
+      <c r="U47" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="V47" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
+      <c r="W47" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X47" t="n">
+      <c r="X47" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="Y47" s="3" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
+      <c r="Z47" s="3" t="inlineStr"/>
+      <c r="AA47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="3" t="n">
         <v>125465</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>Timolan ES</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="3" t="n">
         <v>258664.91</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" s="3" t="n">
         <v>258664.91</v>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" t="n">
+      <c r="O48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="R48" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="S48" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="T48" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U48" t="n">
+      <c r="U48" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="V48" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="W48" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X48" t="n">
+      <c r="X48" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Y48" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z48" s="3" t="inlineStr"/>
+      <c r="AA48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="3" t="n">
         <v>125467</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>Woodland ES</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="3" t="n">
         <v>258507.41</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M49" s="3" t="n">
         <v>258507.41</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N49" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" t="n">
+      <c r="O49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="R49" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="S49" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="T49" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U49" t="n">
+      <c r="U49" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="V49" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="W49" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X49" t="n">
+      <c r="X49" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="Y49" s="3" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
+      <c r="Z49" s="3" t="inlineStr"/>
+      <c r="AA49" s="3" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="3" t="n">
         <v>303753</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>Antonio NHS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="3" t="n">
         <v>256186.91</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" s="3" t="n">
         <v>256186.91</v>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N50" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
+      <c r="O50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="R50" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S50" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="T50" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U50" t="n">
+      <c r="U50" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="V50" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
+      <c r="W50" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X50" t="n">
+      <c r="X50" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="Y50" s="3" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
+      <c r="Z50" s="3" t="inlineStr"/>
+      <c r="AA50" s="3" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="3" t="n">
         <v>303821</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>Tigbao NHS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" s="3" t="n">
         <v>256197.41</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M51" s="3" t="n">
         <v>256197.41</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N51" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O51" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" t="n">
+      <c r="O51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="R51" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="T51" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U51" t="n">
+      <c r="U51" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="V51" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
+      <c r="W51" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X51" t="n">
+      <c r="X51" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="Y51" s="3" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
+      <c r="Z51" s="3" t="inlineStr"/>
+      <c r="AA51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="3" t="n">
         <v>125498</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>Kapatagan ES</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" s="3" t="n">
         <v>259504.91</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" s="3" t="n">
         <v>259504.91</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N52" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
+      <c r="O52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="R52" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="T52" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U52" t="n">
+      <c r="U52" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="V52" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="W52" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X52" t="n">
+      <c r="X52" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Y52" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z52" s="3" t="inlineStr"/>
+      <c r="AA52" s="3" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="3" t="n">
         <v>125499</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>Limason ES</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="K53" s="3" t="n">
         <v>259410.41</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" s="3" t="n">
         <v>259410.41</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N53" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
+      <c r="O53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="R53" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="S53" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="T53" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U53" t="n">
+      <c r="U53" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="V53" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr">
+      <c r="W53" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X53" t="n">
+      <c r="X53" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="Y53" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z53" s="3" t="inlineStr"/>
+      <c r="AA53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="3" t="n">
         <v>125500</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>Linoguayan ES</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="3" t="n">
         <v>259399.91</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" s="3" t="n">
         <v>259399.91</v>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N54" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" t="n">
+      <c r="O54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="R54" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="S54" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="T54" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U54" t="n">
+      <c r="U54" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="V54" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
+      <c r="W54" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X54" t="n">
+      <c r="X54" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="Y54" s="3" t="inlineStr">
         <is>
           <t>AJT Construction</t>
         </is>
       </c>
+      <c r="Z54" s="3" t="inlineStr"/>
+      <c r="AA54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="3" t="n">
         <v>125502</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>Lunib ES</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="K55" s="3" t="n">
         <v>259378.91</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" s="3" t="n">
         <v>259378.91</v>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N55" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" t="n">
+      <c r="O55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="R55" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="S55" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="T55" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U55" t="n">
+      <c r="U55" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="V55" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
+      <c r="W55" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X55" t="n">
+      <c r="X55" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="Y55" s="3" t="inlineStr">
         <is>
           <t>AJT Construction</t>
         </is>
       </c>
+      <c r="Z55" s="3" t="inlineStr"/>
+      <c r="AA55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="3" t="n">
         <v>125507</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>Vincenzo Sagun CES</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="K56" s="3" t="n">
         <v>257509.91</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" s="3" t="n">
         <v>257509.91</v>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N56" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" t="n">
+      <c r="O56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="R56" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="T56" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U56" t="n">
+      <c r="U56" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="V56" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr">
+      <c r="W56" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X56" t="n">
+      <c r="X56" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Y56" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z56" s="3" t="inlineStr"/>
+      <c r="AA56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="3" t="n">
         <v>303765</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>Cogon NHS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="K57" s="3" t="n">
         <v>257404.91</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" s="3" t="n">
         <v>257404.91</v>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N57" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" t="n">
+      <c r="O57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3" t="n">
         <v>44601</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57" s="3" t="n">
         <v>44812</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="R57" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="S57" s="3" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="T57" s="3" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U57" t="n">
+      <c r="U57" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="V57" s="3" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr">
+      <c r="W57" s="3" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X57" t="n">
+      <c r="X57" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Y57" s="3" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
+      <c r="Z57" s="3" t="inlineStr"/>
+      <c r="AA57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="3" t="n">
         <v>125854</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>Talusan CES</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="G58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="K58" s="3" t="n">
         <v>235553.07</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" s="3" t="n">
         <v>235553.07</v>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N58" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" t="inlineStr">
+      <c r="O58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="3" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58" s="3" t="n">
         <v>45138</v>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="R58" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="S58" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="T58" s="3" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="U58" s="3" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V58" t="n">
+      <c r="V58" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="W58" t="inlineStr">
+      <c r="W58" s="3" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr">
+      <c r="X58" s="3" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Y58" s="3" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
+      <c r="Z58" s="3" t="inlineStr"/>
+      <c r="AA58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="3" t="n">
         <v>125843</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>Baganipay ES</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="G59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="K59" s="3" t="n">
         <v>238178.33</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" s="3" t="n">
         <v>238178.33</v>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N59" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" t="inlineStr">
+      <c r="O59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="3" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" s="3" t="n">
         <v>45138</v>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="R59" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="S59" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="T59" s="3" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="U59" s="3" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V59" t="n">
+      <c r="V59" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="W59" t="inlineStr">
+      <c r="W59" s="3" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr">
+      <c r="X59" s="3" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="Y59" s="3" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
+      <c r="Z59" s="3" t="inlineStr"/>
+      <c r="AA59" s="3" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="3" t="n">
         <v>125853</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>Samonte ES</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="G60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="K60" s="3" t="n">
         <v>242903.07</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" s="3" t="n">
         <v>242903.07</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N60" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" t="inlineStr">
+      <c r="O60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="3" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60" s="3" t="n">
         <v>45138</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="R60" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="S60" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="T60" s="3" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="U60" s="3" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V60" t="n">
+      <c r="V60" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="W60" t="inlineStr">
+      <c r="W60" s="3" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr">
+      <c r="X60" s="3" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="Y60" s="3" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
+      <c r="Z60" s="3" t="inlineStr"/>
+      <c r="AA60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="3" t="n">
         <v>125848</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>Kawilan ES</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="G61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="K61" s="3" t="n">
         <v>245570.59</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="M61" s="3" t="n">
         <v>245570.59</v>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N61" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" t="inlineStr">
+      <c r="O61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="3" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61" s="3" t="n">
         <v>45138</v>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="R61" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="T61" s="3" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="U61" s="3" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V61" t="n">
+      <c r="V61" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="W61" t="inlineStr">
+      <c r="W61" s="3" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr">
+      <c r="X61" s="3" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Y61" s="3" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
+      <c r="Z61" s="3" t="inlineStr"/>
+      <c r="AA61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="3" t="n">
         <v>125852</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>Sagay ES</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="G62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="K62" s="3" t="n">
         <v>249780.83</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" s="3" t="n">
         <v>249780.83</v>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N62" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" t="inlineStr">
+      <c r="O62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="3" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" s="3" t="n">
         <v>45138</v>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="R62" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="T62" s="3" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="U62" s="3" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V62" t="n">
+      <c r="V62" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="W62" t="inlineStr">
+      <c r="W62" s="3" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr">
+      <c r="X62" s="3" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Y62" s="3" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
+      <c r="Z62" s="3" t="inlineStr"/>
+      <c r="AA62" s="3" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="3" t="n">
         <v>125842</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>Aurora PS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="G63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="K63" s="3" t="n">
         <v>251849.59</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" s="3" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="M63" s="3" t="n">
         <v>251849.59</v>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="N63" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" t="inlineStr">
+      <c r="O63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="3" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63" s="3" t="n">
         <v>45138</v>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="R63" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="S63" s="3" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="T63" s="3" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="U63" s="3" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V63" t="n">
+      <c r="V63" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="W63" t="inlineStr">
+      <c r="W63" s="3" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr">
+      <c r="X63" s="3" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Y63" s="3" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
+      <c r="Z63" s="3" t="inlineStr"/>
+      <c r="AA63" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AF2:AF63" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA63" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,13 +62,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,6953 +443,6983 @@
   <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="48" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="145" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="39" customWidth="1" min="18" max="18"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="36" customWidth="1" min="25" max="25"/>
+    <col width="36" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>500675</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Kauswagan Integrated School</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="inlineStr"/>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="inlineStr"/>
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>3656520.52</v>
       </c>
-      <c r="L2" s="3" t="inlineStr"/>
-      <c r="M2" s="3" t="n">
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="n">
         <v>3601234.72</v>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>July 17, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-005</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-005</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>November 14, 2023</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>May 06, 2024</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>May 17, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AA2" s="3" t="n"/>
+      <c r="AA2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>126028</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Cabunbata Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <v>3196585.16</v>
       </c>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="n">
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="n">
         <v>3001865.23</v>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>INFRAEPA2024-03</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>INFRAEPA2024-03</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>November 15, 2023</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>AL-QATANI ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z3" s="3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA3" s="3" t="n"/>
+      <c r="AA3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>303715</v>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Piñan National High School</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>PIÑAN (NEW PIÑAN)</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="n">
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="n">
         <v>4113576.02</v>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>September 27, 0204</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>2024-03-CBZN</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>CB-2024-015</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>December 12, 2023</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>January 05, 2024</t>
         </is>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>YSL Builder</t>
         </is>
       </c>
-      <c r="Z4" s="3" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA4" s="3" t="n"/>
+      <c r="AA4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>303739</v>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Sindangan National High School</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Sindangan</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="n">
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="n">
         <v>4113576.02</v>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>2024-10-CBZN</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>CB-2024-016</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>December 07, 2024</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>December 22, 2023</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>YSL Builder</t>
         </is>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA5" s="3" t="n"/>
+      <c r="AA5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>303706</v>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Liloy National High School</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>LILOY</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="n">
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="n">
         <v>4077553.98</v>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>August 30, 2024</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>2024-11-CBZN</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>CB-2024-017</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>December 07, 2024</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z6" s="3" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA6" s="3" t="n"/>
+      <c r="AA6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>303803</v>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Mahayag School of Arts and Trade (Mahayag NHS)</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>MAHAYAG</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
         </is>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <v>2812007.03</v>
       </c>
-      <c r="L7" s="3" t="inlineStr"/>
-      <c r="M7" s="3" t="n">
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="n">
         <v>2806210.33</v>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-01</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-01</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>December 29, 2024</t>
         </is>
       </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z7" s="3" t="inlineStr"/>
-      <c r="AA7" s="3" t="n"/>
+      <c r="Z7" s="4" t="inlineStr"/>
+      <c r="AA7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>303768</v>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Tabina National High School</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>TABINA</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
         </is>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <v>2859772.23</v>
       </c>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="n">
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="n">
         <v>2854537.14</v>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="O8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-02</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-02</t>
         </is>
       </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W8" s="3" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>December 29, 2024</t>
         </is>
       </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="3" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z8" s="3" t="inlineStr"/>
-      <c r="AA8" s="3" t="n"/>
+      <c r="Z8" s="4" t="inlineStr"/>
+      <c r="AA8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>125628</v>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Pangi Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Ipil</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 1A - with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <v>282032.21</v>
       </c>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="n">
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="n">
         <v>250149.56</v>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="O9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>August 23, 2024</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>November 22, 2024</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>ZSY-2024HEALTH-01</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>ZSY-2024HEALTH-01</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>November 22, 2023</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>November 29, 2023</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="W9" s="3" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>February 28, 2024</t>
         </is>
       </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="3" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>AAFIAH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z9" s="3" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AA9" s="3" t="n"/>
+      <c r="AA9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>124533</v>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Alvenda ES</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="O10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X10" s="3" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z10" s="3" t="inlineStr"/>
-      <c r="AA10" s="3" t="n"/>
+      <c r="Z10" s="4" t="inlineStr"/>
+      <c r="AA10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>124534</v>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Buena Suerte ES</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="O11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X11" s="3" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y11" s="3" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z11" s="3" t="inlineStr"/>
-      <c r="AA11" s="3" t="n"/>
+      <c r="Z11" s="4" t="inlineStr"/>
+      <c r="AA11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>124535</v>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Delampinas ES</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N12" s="3" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="O12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U12" s="3" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W12" s="3" t="n">
+      <c r="W12" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X12" s="3" t="inlineStr">
+      <c r="X12" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y12" s="3" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z12" s="3" t="inlineStr"/>
-      <c r="AA12" s="3" t="n"/>
+      <c r="Z12" s="4" t="inlineStr"/>
+      <c r="AA12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>124539</v>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Juan C. Dumaog Sr. ES</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="G13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N13" s="3" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="O13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U13" s="3" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X13" s="3" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y13" s="3" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z13" s="3" t="inlineStr"/>
-      <c r="AA13" s="3" t="n"/>
+      <c r="Z13" s="4" t="inlineStr"/>
+      <c r="AA13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>124540</v>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Mutia CS</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="G14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N14" s="3" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="O14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U14" s="3" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X14" s="3" t="inlineStr">
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y14" s="3" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z14" s="3" t="inlineStr"/>
-      <c r="AA14" s="3" t="n"/>
+      <c r="Z14" s="4" t="inlineStr"/>
+      <c r="AA14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>124544</v>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Tinglan ES</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="G15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N15" s="3" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="O15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="T15" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U15" s="3" t="inlineStr">
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V15" s="3" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W15" s="3" t="n">
+      <c r="W15" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X15" s="3" t="inlineStr">
+      <c r="X15" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y15" s="3" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z15" s="3" t="inlineStr"/>
-      <c r="AA15" s="3" t="n"/>
+      <c r="Z15" s="4" t="inlineStr"/>
+      <c r="AA15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>124545</v>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Totongon ES</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M16" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N16" s="3" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
+      <c r="O16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S16" s="3" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T16" s="3" t="n">
+      <c r="T16" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U16" s="3" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V16" s="3" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W16" s="3" t="n">
+      <c r="W16" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X16" s="3" t="inlineStr">
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y16" s="3" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z16" s="3" t="inlineStr"/>
-      <c r="AA16" s="3" t="n"/>
+      <c r="Z16" s="4" t="inlineStr"/>
+      <c r="AA16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>124546</v>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Tubak ES</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="G17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N17" s="3" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="O17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T17" s="3" t="n">
+      <c r="T17" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U17" s="3" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V17" s="3" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X17" s="3" t="inlineStr">
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y17" s="3" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z17" s="3" t="inlineStr"/>
-      <c r="AA17" s="3" t="n"/>
+      <c r="Z17" s="4" t="inlineStr"/>
+      <c r="AA17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>314119</v>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Mutia NHS Extension - Alvenda</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="G18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N18" s="3" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
+      <c r="O18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="Q18" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
+      <c r="R18" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S18" s="3" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U18" s="3" t="inlineStr">
+      <c r="U18" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V18" s="3" t="inlineStr">
+      <c r="V18" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X18" s="3" t="inlineStr">
+      <c r="X18" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y18" s="3" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z18" s="3" t="inlineStr"/>
-      <c r="AA18" s="3" t="n"/>
+      <c r="Z18" s="4" t="inlineStr"/>
+      <c r="AA18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>303714</v>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Mutia NHS Annex - Tubak</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="G19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="4" t="n">
         <v>108064.83</v>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="4" t="n">
         <v>108064.83</v>
       </c>
-      <c r="N19" s="3" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="O19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="R19" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S19" s="3" t="inlineStr">
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T19" s="3" t="n">
+      <c r="T19" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U19" s="3" t="inlineStr">
+      <c r="U19" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V19" s="3" t="inlineStr">
+      <c r="V19" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W19" s="3" t="n">
+      <c r="W19" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X19" s="3" t="inlineStr">
+      <c r="X19" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y19" s="3" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z19" s="3" t="inlineStr"/>
-      <c r="AA19" s="3" t="n"/>
+      <c r="Z19" s="4" t="inlineStr"/>
+      <c r="AA19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>124738</v>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Bagacay ES</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="G20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L20" s="3" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N20" s="3" t="inlineStr">
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="inlineStr">
+      <c r="O20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q20" s="3" t="inlineStr">
+      <c r="Q20" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R20" s="3" t="inlineStr">
+      <c r="R20" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S20" s="3" t="inlineStr">
+      <c r="S20" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T20" s="3" t="n">
+      <c r="T20" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U20" s="3" t="inlineStr">
+      <c r="U20" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V20" s="3" t="inlineStr">
+      <c r="V20" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W20" s="3" t="n">
+      <c r="W20" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X20" s="3" t="inlineStr">
+      <c r="X20" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y20" s="3" t="inlineStr">
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z20" s="3" t="inlineStr"/>
-      <c r="AA20" s="3" t="n"/>
+      <c r="Z20" s="4" t="inlineStr"/>
+      <c r="AA20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>124741</v>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Calube ES</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="G21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L21" s="3" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N21" s="3" t="inlineStr">
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3" t="inlineStr">
+      <c r="O21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q21" s="3" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R21" s="3" t="inlineStr">
+      <c r="R21" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S21" s="3" t="inlineStr">
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U21" s="3" t="inlineStr">
+      <c r="U21" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V21" s="3" t="inlineStr">
+      <c r="V21" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X21" s="3" t="inlineStr">
+      <c r="X21" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y21" s="3" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z21" s="3" t="inlineStr"/>
-      <c r="AA21" s="3" t="n"/>
+      <c r="Z21" s="4" t="inlineStr"/>
+      <c r="AA21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>124743</v>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Kanim ES</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="G22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K22" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L22" s="3" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M22" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N22" s="3" t="inlineStr">
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3" t="inlineStr">
+      <c r="O22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q22" s="3" t="inlineStr">
+      <c r="Q22" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R22" s="3" t="inlineStr">
+      <c r="R22" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S22" s="3" t="inlineStr">
+      <c r="S22" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T22" s="3" t="n">
+      <c r="T22" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U22" s="3" t="inlineStr">
+      <c r="U22" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V22" s="3" t="inlineStr">
+      <c r="V22" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W22" s="3" t="n">
+      <c r="W22" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X22" s="3" t="inlineStr">
+      <c r="X22" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y22" s="3" t="inlineStr">
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z22" s="3" t="inlineStr"/>
-      <c r="AA22" s="3" t="n"/>
+      <c r="Z22" s="4" t="inlineStr"/>
+      <c r="AA22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>124744</v>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Libay ES</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="G23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L23" s="3" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="M23" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N23" s="3" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3" t="inlineStr">
+      <c r="O23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q23" s="3" t="inlineStr">
+      <c r="Q23" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R23" s="3" t="inlineStr">
+      <c r="R23" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S23" s="3" t="inlineStr">
+      <c r="S23" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T23" s="3" t="n">
+      <c r="T23" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U23" s="3" t="inlineStr">
+      <c r="U23" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V23" s="3" t="inlineStr">
+      <c r="V23" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W23" s="3" t="n">
+      <c r="W23" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X23" s="3" t="inlineStr">
+      <c r="X23" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y23" s="3" t="inlineStr">
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z23" s="3" t="inlineStr"/>
-      <c r="AA23" s="3" t="n"/>
+      <c r="Z23" s="4" t="inlineStr"/>
+      <c r="AA23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>124745</v>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Magsaysay ES</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="G24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K24" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L24" s="3" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="M24" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N24" s="3" t="inlineStr">
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="inlineStr">
+      <c r="O24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q24" s="3" t="inlineStr">
+      <c r="Q24" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R24" s="3" t="inlineStr">
+      <c r="R24" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S24" s="3" t="inlineStr">
+      <c r="S24" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T24" s="3" t="n">
+      <c r="T24" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U24" s="3" t="inlineStr">
+      <c r="U24" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V24" s="3" t="inlineStr">
+      <c r="V24" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W24" s="3" t="n">
+      <c r="W24" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X24" s="3" t="inlineStr">
+      <c r="X24" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y24" s="3" t="inlineStr">
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z24" s="3" t="inlineStr"/>
-      <c r="AA24" s="3" t="n"/>
+      <c r="Z24" s="4" t="inlineStr"/>
+      <c r="AA24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="4" t="n">
         <v>124746</v>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Marapong ES</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="G25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K25" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L25" s="3" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="M25" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N25" s="3" t="inlineStr">
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3" t="inlineStr">
+      <c r="O25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q25" s="3" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R25" s="3" t="inlineStr">
+      <c r="R25" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S25" s="3" t="inlineStr">
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T25" s="3" t="n">
+      <c r="T25" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U25" s="3" t="inlineStr">
+      <c r="U25" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V25" s="3" t="inlineStr">
+      <c r="V25" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W25" s="3" t="n">
+      <c r="W25" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X25" s="3" t="inlineStr">
+      <c r="X25" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y25" s="3" t="inlineStr">
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z25" s="3" t="inlineStr"/>
-      <c r="AA25" s="3" t="n"/>
+      <c r="Z25" s="4" t="inlineStr"/>
+      <c r="AA25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="4" t="n">
         <v>124748</v>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Oyan ES</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="G26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="K26" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L26" s="3" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="M26" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N26" s="3" t="inlineStr">
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="inlineStr">
+      <c r="O26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q26" s="3" t="inlineStr">
+      <c r="Q26" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R26" s="3" t="inlineStr">
+      <c r="R26" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S26" s="3" t="inlineStr">
+      <c r="S26" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T26" s="3" t="n">
+      <c r="T26" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U26" s="3" t="inlineStr">
+      <c r="U26" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V26" s="3" t="inlineStr">
+      <c r="V26" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W26" s="3" t="n">
+      <c r="W26" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X26" s="3" t="inlineStr">
+      <c r="X26" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y26" s="3" t="inlineStr">
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z26" s="3" t="inlineStr"/>
-      <c r="AA26" s="3" t="n"/>
+      <c r="Z26" s="4" t="inlineStr"/>
+      <c r="AA26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="4" t="n">
         <v>124750</v>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Sawang ES</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="G27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K27" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L27" s="3" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="M27" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N27" s="3" t="inlineStr">
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3" t="inlineStr">
+      <c r="O27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q27" s="3" t="inlineStr">
+      <c r="Q27" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R27" s="3" t="inlineStr">
+      <c r="R27" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S27" s="3" t="inlineStr">
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T27" s="3" t="n">
+      <c r="T27" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U27" s="3" t="inlineStr">
+      <c r="U27" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V27" s="3" t="inlineStr">
+      <c r="V27" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W27" s="3" t="n">
+      <c r="W27" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X27" s="3" t="inlineStr">
+      <c r="X27" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y27" s="3" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z27" s="3" t="inlineStr"/>
-      <c r="AA27" s="3" t="n"/>
+      <c r="Z27" s="4" t="inlineStr"/>
+      <c r="AA27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="4" t="n">
         <v>124751</v>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Sibutad CS</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="G28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K28" s="3" t="n">
+      <c r="K28" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L28" s="3" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" s="3" t="n">
+      <c r="M28" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N28" s="3" t="inlineStr">
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="3" t="inlineStr">
+      <c r="O28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q28" s="3" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R28" s="3" t="inlineStr">
+      <c r="R28" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S28" s="3" t="inlineStr">
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T28" s="3" t="n">
+      <c r="T28" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U28" s="3" t="inlineStr">
+      <c r="U28" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V28" s="3" t="inlineStr">
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W28" s="3" t="n">
+      <c r="W28" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X28" s="3" t="inlineStr">
+      <c r="X28" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y28" s="3" t="inlineStr">
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z28" s="3" t="inlineStr"/>
-      <c r="AA28" s="3" t="n"/>
+      <c r="Z28" s="4" t="inlineStr"/>
+      <c r="AA28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4" t="n">
         <v>124753</v>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Sipaloc ES</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
+      <c r="G29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="K29" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L29" s="3" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" s="3" t="n">
+      <c r="M29" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N29" s="3" t="inlineStr">
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3" t="inlineStr">
+      <c r="O29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q29" s="3" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr">
+      <c r="R29" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S29" s="3" t="inlineStr">
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T29" s="3" t="n">
+      <c r="T29" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U29" s="3" t="inlineStr">
+      <c r="U29" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V29" s="3" t="inlineStr">
+      <c r="V29" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W29" s="3" t="n">
+      <c r="W29" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X29" s="3" t="inlineStr">
+      <c r="X29" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y29" s="3" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z29" s="3" t="inlineStr"/>
-      <c r="AA29" s="3" t="n"/>
+      <c r="Z29" s="4" t="inlineStr"/>
+      <c r="AA29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="4" t="n">
         <v>303694</v>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Kanim NHS</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="G30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="K30" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L30" s="3" t="inlineStr">
+      <c r="L30" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" s="3" t="n">
+      <c r="M30" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N30" s="3" t="inlineStr">
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3" t="inlineStr">
+      <c r="O30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q30" s="3" t="inlineStr">
+      <c r="Q30" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R30" s="3" t="inlineStr">
+      <c r="R30" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S30" s="3" t="inlineStr">
+      <c r="S30" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T30" s="3" t="n">
+      <c r="T30" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U30" s="3" t="inlineStr">
+      <c r="U30" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V30" s="3" t="inlineStr">
+      <c r="V30" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W30" s="3" t="n">
+      <c r="W30" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X30" s="3" t="inlineStr">
+      <c r="X30" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y30" s="3" t="inlineStr">
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z30" s="3" t="inlineStr"/>
-      <c r="AA30" s="3" t="n"/>
+      <c r="Z30" s="4" t="inlineStr"/>
+      <c r="AA30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="4" t="n">
         <v>303695</v>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Sawang NHS</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="G31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K31" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L31" s="3" t="inlineStr">
+      <c r="L31" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" s="3" t="n">
+      <c r="M31" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N31" s="3" t="inlineStr">
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3" t="inlineStr">
+      <c r="O31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q31" s="3" t="inlineStr">
+      <c r="Q31" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R31" s="3" t="inlineStr">
+      <c r="R31" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S31" s="3" t="inlineStr">
+      <c r="S31" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T31" s="3" t="n">
+      <c r="T31" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U31" s="3" t="inlineStr">
+      <c r="U31" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V31" s="3" t="inlineStr">
+      <c r="V31" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W31" s="3" t="n">
+      <c r="W31" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X31" s="3" t="inlineStr">
+      <c r="X31" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y31" s="3" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z31" s="3" t="inlineStr"/>
-      <c r="AA31" s="3" t="n"/>
+      <c r="Z31" s="4" t="inlineStr"/>
+      <c r="AA31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="4" t="n">
         <v>303737</v>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Sibutad NHS</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="G32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K32" s="3" t="n">
+      <c r="K32" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L32" s="3" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" s="3" t="n">
+      <c r="M32" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N32" s="3" t="inlineStr">
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3" t="inlineStr">
+      <c r="O32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q32" s="3" t="inlineStr">
+      <c r="Q32" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R32" s="3" t="inlineStr">
+      <c r="R32" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S32" s="3" t="inlineStr">
+      <c r="S32" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T32" s="3" t="n">
+      <c r="T32" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U32" s="3" t="inlineStr">
+      <c r="U32" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V32" s="3" t="inlineStr">
+      <c r="V32" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W32" s="3" t="n">
+      <c r="W32" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X32" s="3" t="inlineStr">
+      <c r="X32" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y32" s="3" t="inlineStr">
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z32" s="3" t="inlineStr"/>
-      <c r="AA32" s="3" t="n"/>
+      <c r="Z32" s="4" t="inlineStr"/>
+      <c r="AA32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="4" t="n">
         <v>501159</v>
       </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Bogo Calabat IS</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
+      <c r="G33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="K33" s="4" t="n">
         <v>259557.41</v>
       </c>
-      <c r="L33" s="3" t="inlineStr">
+      <c r="L33" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" s="3" t="n">
+      <c r="M33" s="4" t="n">
         <v>259557.41</v>
       </c>
-      <c r="N33" s="3" t="inlineStr">
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3" t="n">
+      <c r="O33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q33" s="3" t="n">
+      <c r="Q33" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R33" s="3" t="inlineStr">
+      <c r="R33" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="S33" s="3" t="inlineStr">
+      <c r="S33" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="T33" s="3" t="inlineStr">
+      <c r="T33" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U33" s="3" t="n">
+      <c r="U33" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V33" s="3" t="inlineStr">
+      <c r="V33" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W33" s="3" t="inlineStr">
+      <c r="W33" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X33" s="3" t="n">
+      <c r="X33" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y33" s="3" t="inlineStr">
+      <c r="Y33" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z33" s="3" t="inlineStr"/>
-      <c r="AA33" s="3" t="n"/>
+      <c r="Z33" s="4" t="inlineStr"/>
+      <c r="AA33" s="5" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="4" t="n">
         <v>125078</v>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Dawa ES</t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
+      <c r="G34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K34" s="3" t="n">
+      <c r="K34" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="L34" s="3" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" s="3" t="n">
+      <c r="M34" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="N34" s="3" t="inlineStr">
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="3" t="n">
+      <c r="O34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q34" s="3" t="n">
+      <c r="Q34" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R34" s="3" t="inlineStr">
+      <c r="R34" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="S34" s="3" t="inlineStr">
+      <c r="S34" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="T34" s="3" t="inlineStr">
+      <c r="T34" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U34" s="3" t="n">
+      <c r="U34" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V34" s="3" t="inlineStr">
+      <c r="V34" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W34" s="3" t="inlineStr">
+      <c r="W34" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X34" s="3" t="n">
+      <c r="X34" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y34" s="3" t="inlineStr">
+      <c r="Y34" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z34" s="3" t="inlineStr"/>
-      <c r="AA34" s="3" t="n"/>
+      <c r="Z34" s="4" t="inlineStr"/>
+      <c r="AA34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="4" t="n">
         <v>125080</v>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Josefina CES</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
+      <c r="G35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K35" s="3" t="n">
+      <c r="K35" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="L35" s="3" t="inlineStr">
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" s="3" t="n">
+      <c r="M35" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="N35" s="3" t="inlineStr">
+      <c r="N35" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="3" t="n">
+      <c r="O35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q35" s="3" t="n">
+      <c r="Q35" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R35" s="3" t="inlineStr">
+      <c r="R35" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="S35" s="3" t="inlineStr">
+      <c r="S35" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="T35" s="3" t="inlineStr">
+      <c r="T35" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U35" s="3" t="n">
+      <c r="U35" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V35" s="3" t="inlineStr">
+      <c r="V35" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W35" s="3" t="inlineStr">
+      <c r="W35" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X35" s="3" t="n">
+      <c r="X35" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y35" s="3" t="inlineStr">
+      <c r="Y35" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z35" s="3" t="inlineStr"/>
-      <c r="AA35" s="3" t="n"/>
+      <c r="Z35" s="4" t="inlineStr"/>
+      <c r="AA35" s="5" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="4" t="n">
         <v>125090</v>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Upper Bag-ong Tudela ES</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="G36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K36" s="3" t="n">
+      <c r="K36" s="4" t="n">
         <v>259452.41</v>
       </c>
-      <c r="L36" s="3" t="inlineStr">
+      <c r="L36" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" s="3" t="n">
+      <c r="M36" s="4" t="n">
         <v>259452.41</v>
       </c>
-      <c r="N36" s="3" t="inlineStr">
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="3" t="n">
+      <c r="O36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q36" s="3" t="n">
+      <c r="Q36" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R36" s="3" t="inlineStr">
+      <c r="R36" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="S36" s="3" t="inlineStr">
+      <c r="S36" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="T36" s="3" t="inlineStr">
+      <c r="T36" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U36" s="3" t="n">
+      <c r="U36" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V36" s="3" t="inlineStr">
+      <c r="V36" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W36" s="3" t="inlineStr">
+      <c r="W36" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X36" s="3" t="n">
+      <c r="X36" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y36" s="3" t="inlineStr">
+      <c r="Y36" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z36" s="3" t="inlineStr"/>
-      <c r="AA36" s="3" t="n"/>
+      <c r="Z36" s="4" t="inlineStr"/>
+      <c r="AA36" s="5" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="4" t="n">
         <v>125385</v>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>Lumangoy ES</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
+      <c r="G37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K37" s="3" t="n">
+      <c r="K37" s="4" t="n">
         <v>258874.91</v>
       </c>
-      <c r="L37" s="3" t="inlineStr">
+      <c r="L37" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" s="3" t="n">
+      <c r="M37" s="4" t="n">
         <v>258874.91</v>
       </c>
-      <c r="N37" s="3" t="inlineStr">
+      <c r="N37" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="3" t="n">
+      <c r="O37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q37" s="3" t="n">
+      <c r="Q37" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R37" s="3" t="inlineStr">
+      <c r="R37" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="S37" s="3" t="inlineStr">
+      <c r="S37" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="T37" s="3" t="inlineStr">
+      <c r="T37" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U37" s="3" t="n">
+      <c r="U37" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V37" s="3" t="inlineStr">
+      <c r="V37" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W37" s="3" t="inlineStr">
+      <c r="W37" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X37" s="3" t="n">
+      <c r="X37" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y37" s="3" t="inlineStr">
+      <c r="Y37" s="4" t="inlineStr">
         <is>
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
-      <c r="Z37" s="3" t="inlineStr"/>
-      <c r="AA37" s="3" t="n"/>
+      <c r="Z37" s="4" t="inlineStr"/>
+      <c r="AA37" s="5" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="4" t="n">
         <v>125386</v>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>New Carmen ES</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
+      <c r="G38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K38" s="3" t="n">
+      <c r="K38" s="4" t="n">
         <v>258822.41</v>
       </c>
-      <c r="L38" s="3" t="inlineStr">
+      <c r="L38" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" s="3" t="n">
+      <c r="M38" s="4" t="n">
         <v>258822.41</v>
       </c>
-      <c r="N38" s="3" t="inlineStr">
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="3" t="n">
+      <c r="O38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q38" s="3" t="n">
+      <c r="Q38" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R38" s="3" t="inlineStr">
+      <c r="R38" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S38" s="3" t="inlineStr">
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T38" s="3" t="inlineStr">
+      <c r="T38" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U38" s="3" t="n">
+      <c r="U38" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V38" s="3" t="inlineStr">
+      <c r="V38" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W38" s="3" t="inlineStr">
+      <c r="W38" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X38" s="3" t="n">
+      <c r="X38" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y38" s="3" t="inlineStr">
+      <c r="Y38" s="4" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z38" s="3" t="inlineStr"/>
-      <c r="AA38" s="3" t="n"/>
+      <c r="Z38" s="4" t="inlineStr"/>
+      <c r="AA38" s="5" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="4" t="n">
         <v>196032</v>
       </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>Sominot CES-SPED</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
+      <c r="G39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="K39" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="L39" s="3" t="inlineStr">
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" s="3" t="n">
+      <c r="M39" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="N39" s="3" t="inlineStr">
+      <c r="N39" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="3" t="n">
+      <c r="O39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q39" s="3" t="n">
+      <c r="Q39" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R39" s="3" t="inlineStr">
+      <c r="R39" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="S39" s="3" t="inlineStr">
+      <c r="S39" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="T39" s="3" t="inlineStr">
+      <c r="T39" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U39" s="3" t="n">
+      <c r="U39" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V39" s="3" t="inlineStr">
+      <c r="V39" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W39" s="3" t="inlineStr">
+      <c r="W39" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X39" s="3" t="n">
+      <c r="X39" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y39" s="3" t="inlineStr">
+      <c r="Y39" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z39" s="3" t="inlineStr"/>
-      <c r="AA39" s="3" t="n"/>
+      <c r="Z39" s="4" t="inlineStr"/>
+      <c r="AA39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="4" t="n">
         <v>125395</v>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>Tungawan ES</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
+      <c r="G40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K40" s="3" t="n">
+      <c r="K40" s="4" t="n">
         <v>256722.41</v>
       </c>
-      <c r="L40" s="3" t="inlineStr">
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" s="3" t="n">
+      <c r="M40" s="4" t="n">
         <v>256722.41</v>
       </c>
-      <c r="N40" s="3" t="inlineStr">
+      <c r="N40" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="3" t="n">
+      <c r="O40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q40" s="3" t="n">
+      <c r="Q40" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R40" s="3" t="inlineStr">
+      <c r="R40" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S40" s="3" t="inlineStr">
+      <c r="S40" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T40" s="3" t="inlineStr">
+      <c r="T40" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U40" s="3" t="n">
+      <c r="U40" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V40" s="3" t="inlineStr">
+      <c r="V40" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W40" s="3" t="inlineStr">
+      <c r="W40" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X40" s="3" t="n">
+      <c r="X40" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y40" s="3" t="inlineStr">
+      <c r="Y40" s="4" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z40" s="3" t="inlineStr"/>
-      <c r="AA40" s="3" t="n"/>
+      <c r="Z40" s="4" t="inlineStr"/>
+      <c r="AA40" s="5" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="4" t="n">
         <v>125396</v>
       </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>Upper Sicpao ES</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="G41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K41" s="3" t="n">
+      <c r="K41" s="4" t="n">
         <v>256732.91</v>
       </c>
-      <c r="L41" s="3" t="inlineStr">
+      <c r="L41" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" s="3" t="n">
+      <c r="M41" s="4" t="n">
         <v>256732.91</v>
       </c>
-      <c r="N41" s="3" t="inlineStr">
+      <c r="N41" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="3" t="n">
+      <c r="O41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q41" s="3" t="n">
+      <c r="Q41" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R41" s="3" t="inlineStr">
+      <c r="R41" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S41" s="3" t="inlineStr">
+      <c r="S41" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T41" s="3" t="inlineStr">
+      <c r="T41" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U41" s="3" t="n">
+      <c r="U41" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V41" s="3" t="inlineStr">
+      <c r="V41" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W41" s="3" t="inlineStr">
+      <c r="W41" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X41" s="3" t="n">
+      <c r="X41" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y41" s="3" t="inlineStr">
+      <c r="Y41" s="4" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z41" s="3" t="inlineStr"/>
-      <c r="AA41" s="3" t="n"/>
+      <c r="Z41" s="4" t="inlineStr"/>
+      <c r="AA41" s="5" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="4" t="n">
         <v>125394</v>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>Eastern Sominot ES</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="G42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K42" s="3" t="n">
+      <c r="K42" s="4" t="n">
         <v>256738.16</v>
       </c>
-      <c r="L42" s="3" t="inlineStr">
+      <c r="L42" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" s="3" t="n">
+      <c r="M42" s="4" t="n">
         <v>256738.16</v>
       </c>
-      <c r="N42" s="3" t="inlineStr">
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="3" t="n">
+      <c r="O42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q42" s="3" t="n">
+      <c r="Q42" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R42" s="3" t="inlineStr">
+      <c r="R42" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="S42" s="3" t="inlineStr">
+      <c r="S42" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="T42" s="3" t="inlineStr">
+      <c r="T42" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U42" s="3" t="n">
+      <c r="U42" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V42" s="3" t="inlineStr">
+      <c r="V42" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W42" s="3" t="inlineStr">
+      <c r="W42" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X42" s="3" t="n">
+      <c r="X42" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y42" s="3" t="inlineStr">
+      <c r="Y42" s="4" t="inlineStr">
         <is>
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
-      <c r="Z42" s="3" t="inlineStr"/>
-      <c r="AA42" s="3" t="n"/>
+      <c r="Z42" s="4" t="inlineStr"/>
+      <c r="AA42" s="5" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="4" t="n">
         <v>125393</v>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>Sominot CES</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="G43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="K43" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="L43" s="3" t="inlineStr">
+      <c r="L43" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" s="3" t="n">
+      <c r="M43" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="N43" s="3" t="inlineStr">
+      <c r="N43" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="3" t="n">
+      <c r="O43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q43" s="3" t="n">
+      <c r="Q43" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R43" s="3" t="inlineStr">
+      <c r="R43" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="S43" s="3" t="inlineStr">
+      <c r="S43" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="T43" s="3" t="inlineStr">
+      <c r="T43" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U43" s="3" t="n">
+      <c r="U43" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V43" s="3" t="inlineStr">
+      <c r="V43" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W43" s="3" t="inlineStr">
+      <c r="W43" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X43" s="3" t="n">
+      <c r="X43" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y43" s="3" t="inlineStr">
+      <c r="Y43" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z43" s="3" t="inlineStr"/>
-      <c r="AA43" s="3" t="n"/>
+      <c r="Z43" s="4" t="inlineStr"/>
+      <c r="AA43" s="5" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="4" t="n">
         <v>125457</v>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>Limas ES</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
+      <c r="H44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K44" s="3" t="n">
+      <c r="K44" s="4" t="n">
         <v>258454.91</v>
       </c>
-      <c r="L44" s="3" t="inlineStr">
+      <c r="L44" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" s="3" t="n">
+      <c r="M44" s="4" t="n">
         <v>258454.91</v>
       </c>
-      <c r="N44" s="3" t="inlineStr">
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="3" t="n">
+      <c r="O44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q44" s="3" t="n">
+      <c r="Q44" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R44" s="3" t="inlineStr">
+      <c r="R44" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="S44" s="3" t="inlineStr">
+      <c r="S44" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="T44" s="3" t="inlineStr">
+      <c r="T44" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U44" s="3" t="n">
+      <c r="U44" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V44" s="3" t="inlineStr">
+      <c r="V44" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W44" s="3" t="inlineStr">
+      <c r="W44" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X44" s="3" t="n">
+      <c r="X44" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y44" s="3" t="inlineStr">
+      <c r="Y44" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z44" s="3" t="inlineStr"/>
-      <c r="AA44" s="3" t="n"/>
+      <c r="Z44" s="4" t="inlineStr"/>
+      <c r="AA44" s="5" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="4" t="n">
         <v>125459</v>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>Maragang ES</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
+      <c r="H45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="K45" s="4" t="n">
         <v>256144.91</v>
       </c>
-      <c r="L45" s="3" t="inlineStr">
+      <c r="L45" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" s="3" t="n">
+      <c r="M45" s="4" t="n">
         <v>256144.91</v>
       </c>
-      <c r="N45" s="3" t="inlineStr">
+      <c r="N45" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="3" t="n">
+      <c r="O45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q45" s="3" t="n">
+      <c r="Q45" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R45" s="3" t="inlineStr">
+      <c r="R45" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="S45" s="3" t="inlineStr">
+      <c r="S45" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="T45" s="3" t="inlineStr">
+      <c r="T45" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U45" s="3" t="n">
+      <c r="U45" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V45" s="3" t="inlineStr">
+      <c r="V45" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W45" s="3" t="inlineStr">
+      <c r="W45" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X45" s="3" t="n">
+      <c r="X45" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y45" s="3" t="inlineStr">
+      <c r="Y45" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z45" s="3" t="inlineStr"/>
-      <c r="AA45" s="3" t="n"/>
+      <c r="Z45" s="4" t="inlineStr"/>
+      <c r="AA45" s="5" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="4" t="n">
         <v>125463</v>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>Nilo ES</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
+      <c r="H46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K46" s="3" t="n">
+      <c r="K46" s="4" t="n">
         <v>256165.91</v>
       </c>
-      <c r="L46" s="3" t="inlineStr">
+      <c r="L46" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" s="3" t="n">
+      <c r="M46" s="4" t="n">
         <v>256165.91</v>
       </c>
-      <c r="N46" s="3" t="inlineStr">
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="3" t="n">
+      <c r="O46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q46" s="3" t="n">
+      <c r="Q46" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R46" s="3" t="inlineStr">
+      <c r="R46" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="S46" s="3" t="inlineStr">
+      <c r="S46" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="T46" s="3" t="inlineStr">
+      <c r="T46" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U46" s="3" t="n">
+      <c r="U46" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V46" s="3" t="inlineStr">
+      <c r="V46" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W46" s="3" t="inlineStr">
+      <c r="W46" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X46" s="3" t="n">
+      <c r="X46" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y46" s="3" t="inlineStr">
+      <c r="Y46" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z46" s="3" t="inlineStr"/>
-      <c r="AA46" s="3" t="n"/>
+      <c r="Z46" s="4" t="inlineStr"/>
+      <c r="AA46" s="5" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="4" t="n">
         <v>125464</v>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>Tigbao CES</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
+      <c r="H47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K47" s="3" t="n">
+      <c r="K47" s="4" t="n">
         <v>256176.41</v>
       </c>
-      <c r="L47" s="3" t="inlineStr">
+      <c r="L47" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" s="3" t="n">
+      <c r="M47" s="4" t="n">
         <v>256176.41</v>
       </c>
-      <c r="N47" s="3" t="inlineStr">
+      <c r="N47" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="3" t="n">
+      <c r="O47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q47" s="3" t="n">
+      <c r="Q47" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R47" s="3" t="inlineStr">
+      <c r="R47" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="S47" s="3" t="inlineStr">
+      <c r="S47" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="T47" s="3" t="inlineStr">
+      <c r="T47" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U47" s="3" t="n">
+      <c r="U47" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V47" s="3" t="inlineStr">
+      <c r="V47" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W47" s="3" t="inlineStr">
+      <c r="W47" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X47" s="3" t="n">
+      <c r="X47" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y47" s="3" t="inlineStr">
+      <c r="Y47" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z47" s="3" t="inlineStr"/>
-      <c r="AA47" s="3" t="n"/>
+      <c r="Z47" s="4" t="inlineStr"/>
+      <c r="AA47" s="5" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="4" t="n">
         <v>125465</v>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>Timolan ES</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
+      <c r="H48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K48" s="3" t="n">
+      <c r="K48" s="4" t="n">
         <v>258664.91</v>
       </c>
-      <c r="L48" s="3" t="inlineStr">
+      <c r="L48" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" s="3" t="n">
+      <c r="M48" s="4" t="n">
         <v>258664.91</v>
       </c>
-      <c r="N48" s="3" t="inlineStr">
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="3" t="n">
+      <c r="O48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q48" s="3" t="n">
+      <c r="Q48" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R48" s="3" t="inlineStr">
+      <c r="R48" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="S48" s="3" t="inlineStr">
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="T48" s="3" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U48" s="3" t="n">
+      <c r="U48" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V48" s="3" t="inlineStr">
+      <c r="V48" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W48" s="3" t="inlineStr">
+      <c r="W48" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X48" s="3" t="n">
+      <c r="X48" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y48" s="3" t="inlineStr">
+      <c r="Y48" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z48" s="3" t="inlineStr"/>
-      <c r="AA48" s="3" t="n"/>
+      <c r="Z48" s="4" t="inlineStr"/>
+      <c r="AA48" s="5" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="4" t="n">
         <v>125467</v>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Woodland ES</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
+      <c r="H49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K49" s="3" t="n">
+      <c r="K49" s="4" t="n">
         <v>258507.41</v>
       </c>
-      <c r="L49" s="3" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" s="3" t="n">
+      <c r="M49" s="4" t="n">
         <v>258507.41</v>
       </c>
-      <c r="N49" s="3" t="inlineStr">
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="3" t="n">
+      <c r="O49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q49" s="3" t="n">
+      <c r="Q49" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R49" s="3" t="inlineStr">
+      <c r="R49" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="S49" s="3" t="inlineStr">
+      <c r="S49" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="T49" s="3" t="inlineStr">
+      <c r="T49" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U49" s="3" t="n">
+      <c r="U49" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V49" s="3" t="inlineStr">
+      <c r="V49" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W49" s="3" t="inlineStr">
+      <c r="W49" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X49" s="3" t="n">
+      <c r="X49" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y49" s="3" t="inlineStr">
+      <c r="Y49" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z49" s="3" t="inlineStr"/>
-      <c r="AA49" s="3" t="n"/>
+      <c r="Z49" s="4" t="inlineStr"/>
+      <c r="AA49" s="5" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="4" t="n">
         <v>303753</v>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Antonio NHS</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="H50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K50" s="3" t="n">
+      <c r="K50" s="4" t="n">
         <v>256186.91</v>
       </c>
-      <c r="L50" s="3" t="inlineStr">
+      <c r="L50" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" s="3" t="n">
+      <c r="M50" s="4" t="n">
         <v>256186.91</v>
       </c>
-      <c r="N50" s="3" t="inlineStr">
+      <c r="N50" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="3" t="n">
+      <c r="O50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q50" s="3" t="n">
+      <c r="Q50" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R50" s="3" t="inlineStr">
+      <c r="R50" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="S50" s="3" t="inlineStr">
+      <c r="S50" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="T50" s="3" t="inlineStr">
+      <c r="T50" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U50" s="3" t="n">
+      <c r="U50" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V50" s="3" t="inlineStr">
+      <c r="V50" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W50" s="3" t="inlineStr">
+      <c r="W50" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X50" s="3" t="n">
+      <c r="X50" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y50" s="3" t="inlineStr">
+      <c r="Y50" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z50" s="3" t="inlineStr"/>
-      <c r="AA50" s="3" t="n"/>
+      <c r="Z50" s="4" t="inlineStr"/>
+      <c r="AA50" s="5" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="4" t="n">
         <v>303821</v>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>Tigbao NHS</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
+      <c r="H51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K51" s="3" t="n">
+      <c r="K51" s="4" t="n">
         <v>256197.41</v>
       </c>
-      <c r="L51" s="3" t="inlineStr">
+      <c r="L51" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" s="3" t="n">
+      <c r="M51" s="4" t="n">
         <v>256197.41</v>
       </c>
-      <c r="N51" s="3" t="inlineStr">
+      <c r="N51" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="3" t="n">
+      <c r="O51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q51" s="3" t="n">
+      <c r="Q51" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R51" s="3" t="inlineStr">
+      <c r="R51" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="S51" s="3" t="inlineStr">
+      <c r="S51" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="T51" s="3" t="inlineStr">
+      <c r="T51" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U51" s="3" t="n">
+      <c r="U51" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V51" s="3" t="inlineStr">
+      <c r="V51" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W51" s="3" t="inlineStr">
+      <c r="W51" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X51" s="3" t="n">
+      <c r="X51" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y51" s="3" t="inlineStr">
+      <c r="Y51" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z51" s="3" t="inlineStr"/>
-      <c r="AA51" s="3" t="n"/>
+      <c r="Z51" s="4" t="inlineStr"/>
+      <c r="AA51" s="5" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" s="4" t="n">
         <v>125498</v>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>Kapatagan ES</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G52" s="3" t="n">
+      <c r="G52" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
+      <c r="H52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K52" s="3" t="n">
+      <c r="K52" s="4" t="n">
         <v>259504.91</v>
       </c>
-      <c r="L52" s="3" t="inlineStr">
+      <c r="L52" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" s="3" t="n">
+      <c r="M52" s="4" t="n">
         <v>259504.91</v>
       </c>
-      <c r="N52" s="3" t="inlineStr">
+      <c r="N52" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="3" t="n">
+      <c r="O52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q52" s="3" t="n">
+      <c r="Q52" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R52" s="3" t="inlineStr">
+      <c r="R52" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="S52" s="3" t="inlineStr">
+      <c r="S52" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="T52" s="3" t="inlineStr">
+      <c r="T52" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U52" s="3" t="n">
+      <c r="U52" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V52" s="3" t="inlineStr">
+      <c r="V52" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W52" s="3" t="inlineStr">
+      <c r="W52" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X52" s="3" t="n">
+      <c r="X52" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y52" s="3" t="inlineStr">
+      <c r="Y52" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z52" s="3" t="inlineStr"/>
-      <c r="AA52" s="3" t="n"/>
+      <c r="Z52" s="4" t="inlineStr"/>
+      <c r="AA52" s="5" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="4" t="n">
         <v>125499</v>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>Limason ES</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G53" s="3" t="n">
+      <c r="G53" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
+      <c r="H53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K53" s="3" t="n">
+      <c r="K53" s="4" t="n">
         <v>259410.41</v>
       </c>
-      <c r="L53" s="3" t="inlineStr">
+      <c r="L53" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" s="3" t="n">
+      <c r="M53" s="4" t="n">
         <v>259410.41</v>
       </c>
-      <c r="N53" s="3" t="inlineStr">
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="3" t="n">
+      <c r="O53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q53" s="3" t="n">
+      <c r="Q53" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R53" s="3" t="inlineStr">
+      <c r="R53" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="S53" s="3" t="inlineStr">
+      <c r="S53" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="T53" s="3" t="inlineStr">
+      <c r="T53" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U53" s="3" t="n">
+      <c r="U53" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V53" s="3" t="inlineStr">
+      <c r="V53" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W53" s="3" t="inlineStr">
+      <c r="W53" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X53" s="3" t="n">
+      <c r="X53" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y53" s="3" t="inlineStr">
+      <c r="Y53" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z53" s="3" t="inlineStr"/>
-      <c r="AA53" s="3" t="n"/>
+      <c r="Z53" s="4" t="inlineStr"/>
+      <c r="AA53" s="5" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="4" t="n">
         <v>125500</v>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>Linoguayan ES</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G54" s="3" t="n">
+      <c r="G54" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
+      <c r="H54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K54" s="3" t="n">
+      <c r="K54" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="L54" s="3" t="inlineStr">
+      <c r="L54" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" s="3" t="n">
+      <c r="M54" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="N54" s="3" t="inlineStr">
+      <c r="N54" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="3" t="n">
+      <c r="O54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q54" s="3" t="n">
+      <c r="Q54" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R54" s="3" t="inlineStr">
+      <c r="R54" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="S54" s="3" t="inlineStr">
+      <c r="S54" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="T54" s="3" t="inlineStr">
+      <c r="T54" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U54" s="3" t="n">
+      <c r="U54" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V54" s="3" t="inlineStr">
+      <c r="V54" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W54" s="3" t="inlineStr">
+      <c r="W54" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X54" s="3" t="n">
+      <c r="X54" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y54" s="3" t="inlineStr">
+      <c r="Y54" s="4" t="inlineStr">
         <is>
           <t>AJT Construction</t>
         </is>
       </c>
-      <c r="Z54" s="3" t="inlineStr"/>
-      <c r="AA54" s="3" t="n"/>
+      <c r="Z54" s="4" t="inlineStr"/>
+      <c r="AA54" s="5" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="D55" s="4" t="n">
         <v>125502</v>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>Lunib ES</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G55" s="3" t="n">
+      <c r="G55" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="3" t="inlineStr">
+      <c r="H55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K55" s="3" t="n">
+      <c r="K55" s="4" t="n">
         <v>259378.91</v>
       </c>
-      <c r="L55" s="3" t="inlineStr">
+      <c r="L55" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" s="3" t="n">
+      <c r="M55" s="4" t="n">
         <v>259378.91</v>
       </c>
-      <c r="N55" s="3" t="inlineStr">
+      <c r="N55" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="3" t="n">
+      <c r="O55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q55" s="3" t="n">
+      <c r="Q55" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R55" s="3" t="inlineStr">
+      <c r="R55" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="S55" s="3" t="inlineStr">
+      <c r="S55" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="T55" s="3" t="inlineStr">
+      <c r="T55" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U55" s="3" t="n">
+      <c r="U55" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V55" s="3" t="inlineStr">
+      <c r="V55" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W55" s="3" t="inlineStr">
+      <c r="W55" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X55" s="3" t="n">
+      <c r="X55" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y55" s="3" t="inlineStr">
+      <c r="Y55" s="4" t="inlineStr">
         <is>
           <t>AJT Construction</t>
         </is>
       </c>
-      <c r="Z55" s="3" t="inlineStr"/>
-      <c r="AA55" s="3" t="n"/>
+      <c r="Z55" s="4" t="inlineStr"/>
+      <c r="AA55" s="5" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="4" t="n">
         <v>125507</v>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>Vincenzo Sagun CES</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="3" t="inlineStr">
+      <c r="H56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K56" s="3" t="n">
+      <c r="K56" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="L56" s="3" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" s="3" t="n">
+      <c r="M56" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="N56" s="3" t="inlineStr">
+      <c r="N56" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="3" t="n">
+      <c r="O56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q56" s="3" t="n">
+      <c r="Q56" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R56" s="3" t="inlineStr">
+      <c r="R56" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="S56" s="3" t="inlineStr">
+      <c r="S56" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="T56" s="3" t="inlineStr">
+      <c r="T56" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U56" s="3" t="n">
+      <c r="U56" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V56" s="3" t="inlineStr">
+      <c r="V56" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W56" s="3" t="inlineStr">
+      <c r="W56" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X56" s="3" t="n">
+      <c r="X56" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y56" s="3" t="inlineStr">
+      <c r="Y56" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z56" s="3" t="inlineStr"/>
-      <c r="AA56" s="3" t="n"/>
+      <c r="Z56" s="4" t="inlineStr"/>
+      <c r="AA56" s="5" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D57" s="3" t="n">
+      <c r="D57" s="4" t="n">
         <v>303765</v>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>Cogon NHS</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G57" s="3" t="n">
+      <c r="G57" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3" t="inlineStr">
+      <c r="H57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K57" s="3" t="n">
+      <c r="K57" s="4" t="n">
         <v>257404.91</v>
       </c>
-      <c r="L57" s="3" t="inlineStr">
+      <c r="L57" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" s="3" t="n">
+      <c r="M57" s="4" t="n">
         <v>257404.91</v>
       </c>
-      <c r="N57" s="3" t="inlineStr">
+      <c r="N57" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="3" t="n">
+      <c r="O57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q57" s="3" t="n">
+      <c r="Q57" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R57" s="3" t="inlineStr">
+      <c r="R57" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="S57" s="3" t="inlineStr">
+      <c r="S57" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="T57" s="3" t="inlineStr">
+      <c r="T57" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U57" s="3" t="n">
+      <c r="U57" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V57" s="3" t="inlineStr">
+      <c r="V57" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W57" s="3" t="inlineStr">
+      <c r="W57" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X57" s="3" t="n">
+      <c r="X57" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y57" s="3" t="inlineStr">
+      <c r="Y57" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z57" s="3" t="inlineStr"/>
-      <c r="AA57" s="3" t="n"/>
+      <c r="Z57" s="4" t="inlineStr"/>
+      <c r="AA57" s="5" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="D58" s="4" t="n">
         <v>125854</v>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>Talusan CES</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3" t="inlineStr">
+      <c r="G58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K58" s="3" t="n">
+      <c r="K58" s="4" t="n">
         <v>235553.07</v>
       </c>
-      <c r="L58" s="3" t="inlineStr">
+      <c r="L58" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M58" s="3" t="n">
+      <c r="M58" s="4" t="n">
         <v>235553.07</v>
       </c>
-      <c r="N58" s="3" t="inlineStr">
+      <c r="N58" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="3" t="inlineStr">
+      <c r="O58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q58" s="3" t="n">
+      <c r="Q58" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R58" s="3" t="inlineStr">
+      <c r="R58" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S58" s="3" t="inlineStr">
+      <c r="S58" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T58" s="3" t="inlineStr">
+      <c r="T58" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U58" s="3" t="inlineStr">
+      <c r="U58" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V58" s="3" t="n">
+      <c r="V58" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W58" s="3" t="inlineStr">
+      <c r="W58" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X58" s="3" t="inlineStr">
+      <c r="X58" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y58" s="3" t="inlineStr">
+      <c r="Y58" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z58" s="3" t="inlineStr"/>
-      <c r="AA58" s="3" t="n"/>
+      <c r="Z58" s="4" t="inlineStr"/>
+      <c r="AA58" s="5" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" s="4" t="n">
         <v>125843</v>
       </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t>Baganipay ES</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
+      <c r="G59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K59" s="3" t="n">
+      <c r="K59" s="4" t="n">
         <v>238178.33</v>
       </c>
-      <c r="L59" s="3" t="inlineStr">
+      <c r="L59" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M59" s="3" t="n">
+      <c r="M59" s="4" t="n">
         <v>238178.33</v>
       </c>
-      <c r="N59" s="3" t="inlineStr">
+      <c r="N59" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="3" t="inlineStr">
+      <c r="O59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q59" s="3" t="n">
+      <c r="Q59" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R59" s="3" t="inlineStr">
+      <c r="R59" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S59" s="3" t="inlineStr">
+      <c r="S59" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T59" s="3" t="inlineStr">
+      <c r="T59" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U59" s="3" t="inlineStr">
+      <c r="U59" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V59" s="3" t="n">
+      <c r="V59" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W59" s="3" t="inlineStr">
+      <c r="W59" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X59" s="3" t="inlineStr">
+      <c r="X59" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y59" s="3" t="inlineStr">
+      <c r="Y59" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z59" s="3" t="inlineStr"/>
-      <c r="AA59" s="3" t="n"/>
+      <c r="Z59" s="4" t="inlineStr"/>
+      <c r="AA59" s="5" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D60" s="3" t="n">
+      <c r="D60" s="4" t="n">
         <v>125853</v>
       </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>Samonte ES</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
+      <c r="G60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K60" s="3" t="n">
+      <c r="K60" s="4" t="n">
         <v>242903.07</v>
       </c>
-      <c r="L60" s="3" t="inlineStr">
+      <c r="L60" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M60" s="3" t="n">
+      <c r="M60" s="4" t="n">
         <v>242903.07</v>
       </c>
-      <c r="N60" s="3" t="inlineStr">
+      <c r="N60" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="3" t="inlineStr">
+      <c r="O60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q60" s="3" t="n">
+      <c r="Q60" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R60" s="3" t="inlineStr">
+      <c r="R60" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S60" s="3" t="inlineStr">
+      <c r="S60" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T60" s="3" t="inlineStr">
+      <c r="T60" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U60" s="3" t="inlineStr">
+      <c r="U60" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V60" s="3" t="n">
+      <c r="V60" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W60" s="3" t="inlineStr">
+      <c r="W60" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X60" s="3" t="inlineStr">
+      <c r="X60" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y60" s="3" t="inlineStr">
+      <c r="Y60" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z60" s="3" t="inlineStr"/>
-      <c r="AA60" s="3" t="n"/>
+      <c r="Z60" s="4" t="inlineStr"/>
+      <c r="AA60" s="5" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D61" s="3" t="n">
+      <c r="D61" s="4" t="n">
         <v>125848</v>
       </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>Kawilan ES</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
+      <c r="G61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K61" s="3" t="n">
+      <c r="K61" s="4" t="n">
         <v>245570.59</v>
       </c>
-      <c r="L61" s="3" t="inlineStr">
+      <c r="L61" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M61" s="3" t="n">
+      <c r="M61" s="4" t="n">
         <v>245570.59</v>
       </c>
-      <c r="N61" s="3" t="inlineStr">
+      <c r="N61" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="3" t="inlineStr">
+      <c r="O61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q61" s="3" t="n">
+      <c r="Q61" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R61" s="3" t="inlineStr">
+      <c r="R61" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S61" s="3" t="inlineStr">
+      <c r="S61" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T61" s="3" t="inlineStr">
+      <c r="T61" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U61" s="3" t="inlineStr">
+      <c r="U61" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V61" s="3" t="n">
+      <c r="V61" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W61" s="3" t="inlineStr">
+      <c r="W61" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X61" s="3" t="inlineStr">
+      <c r="X61" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y61" s="3" t="inlineStr">
+      <c r="Y61" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z61" s="3" t="inlineStr"/>
-      <c r="AA61" s="3" t="n"/>
+      <c r="Z61" s="4" t="inlineStr"/>
+      <c r="AA61" s="5" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="D62" s="4" t="n">
         <v>125852</v>
       </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>Sagay ES</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr">
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
+      <c r="G62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K62" s="3" t="n">
+      <c r="K62" s="4" t="n">
         <v>249780.83</v>
       </c>
-      <c r="L62" s="3" t="inlineStr">
+      <c r="L62" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M62" s="3" t="n">
+      <c r="M62" s="4" t="n">
         <v>249780.83</v>
       </c>
-      <c r="N62" s="3" t="inlineStr">
+      <c r="N62" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="3" t="inlineStr">
+      <c r="O62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q62" s="3" t="n">
+      <c r="Q62" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R62" s="3" t="inlineStr">
+      <c r="R62" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S62" s="3" t="inlineStr">
+      <c r="S62" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T62" s="3" t="inlineStr">
+      <c r="T62" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U62" s="3" t="inlineStr">
+      <c r="U62" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V62" s="3" t="n">
+      <c r="V62" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W62" s="3" t="inlineStr">
+      <c r="W62" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X62" s="3" t="inlineStr">
+      <c r="X62" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y62" s="3" t="inlineStr">
+      <c r="Y62" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z62" s="3" t="inlineStr"/>
-      <c r="AA62" s="3" t="n"/>
+      <c r="Z62" s="4" t="inlineStr"/>
+      <c r="AA62" s="5" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D63" s="3" t="n">
+      <c r="D63" s="4" t="n">
         <v>125842</v>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>Aurora PS</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
+      <c r="G63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K63" s="3" t="n">
+      <c r="K63" s="4" t="n">
         <v>251849.59</v>
       </c>
-      <c r="L63" s="3" t="inlineStr">
+      <c r="L63" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M63" s="3" t="n">
+      <c r="M63" s="4" t="n">
         <v>251849.59</v>
       </c>
-      <c r="N63" s="3" t="inlineStr">
+      <c r="N63" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="3" t="inlineStr">
+      <c r="O63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q63" s="3" t="n">
+      <c r="Q63" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R63" s="3" t="inlineStr">
+      <c r="R63" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S63" s="3" t="inlineStr">
+      <c r="S63" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T63" s="3" t="inlineStr">
+      <c r="T63" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U63" s="3" t="inlineStr">
+      <c r="U63" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V63" s="3" t="n">
+      <c r="V63" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W63" s="3" t="inlineStr">
+      <c r="W63" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X63" s="3" t="inlineStr">
+      <c r="X63" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y63" s="3" t="inlineStr">
+      <c r="Y63" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z63" s="3" t="inlineStr"/>
-      <c r="AA63" s="3" t="n"/>
+      <c r="Z63" s="4" t="inlineStr"/>
+      <c r="AA63" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">

--- a/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_HEALTH.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -449,6981 +449,7173 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="48" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="145" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="48" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="145" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="39" customWidth="1" min="18" max="18"/>
-    <col width="30" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="36" customWidth="1" min="25" max="25"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="39" customWidth="1" min="19" max="19"/>
+    <col width="30" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
     <col width="36" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="36" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AA1" s="3" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="E2" s="4" t="n">
         <v>500675</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Kauswagan Integrated School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="inlineStr"/>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="inlineStr"/>
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="L2" s="4" t="n">
         <v>3656520.52</v>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="n">
         <v>3601234.72</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>July 17, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-005</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-005</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>November 14, 2023</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>May 06, 2024</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>May 17, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="AA2" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="n"/>
+      <c r="AB2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="4" t="n">
+        <v>118</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>126028</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Cabunbata Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="L3" s="4" t="n">
         <v>3196585.16</v>
       </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="4" t="inlineStr"/>
+      <c r="N3" s="4" t="n">
         <v>3001865.23</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="P3" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>INFRAEPA2024-03</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>INFRAEPA2024-03</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>November 15, 2023</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>AL-QATANI ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="AA3" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA3" s="5" t="n"/>
+      <c r="AB3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>303715</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Piñan National High School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>PIÑAN (NEW PIÑAN)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="I4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="L4" s="4" t="inlineStr"/>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="4" t="inlineStr"/>
+      <c r="N4" s="4" t="n">
         <v>4113576.02</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>September 27, 0204</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>2024-03-CBZN</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>CB-2024-015</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>December 12, 2023</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>January 05, 2024</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>YSL Builder</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="AA4" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="n"/>
+      <c r="AB4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>303739</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Sindangan National High School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Sindangan</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="L5" s="4" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="n">
         <v>4113576.02</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>2024-10-CBZN</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>CB-2024-016</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>December 07, 2024</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>December 22, 2023</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>YSL Builder</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AA5" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="n"/>
+      <c r="AB5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>303706</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Liloy National High School</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>LILOY</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="L6" s="4" t="n">
         <v>4139595.02</v>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="n">
         <v>4077553.98</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>August 30, 2024</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>2024-11-CBZN</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>CB-2024-017</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>December 07, 2024</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="AA6" s="5" t="n"/>
+      <c r="AB6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>303803</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Mahayag School of Arts and Trade (Mahayag NHS)</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MAHAYAG</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="I7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="L7" s="4" t="n">
         <v>2812007.03</v>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="n">
         <v>2806210.33</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-01</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-01</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>December 29, 2024</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>CPIN BUILDERS</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="5" t="n"/>
+      <c r="AA7" s="4" t="inlineStr"/>
+      <c r="AB7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>303768</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Tabina National High School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>TABINA</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>Proposed Construction Of One (1) Storey - Health Facilities</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>2859772.23</v>
       </c>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" s="4" t="n">
         <v>2854537.14</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>August 13, 2024</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-02</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>ZDS-24-HF-02</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>December 29, 2024</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>AYUS BUILDERS AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="5" t="n"/>
+      <c r="AA8" s="4" t="inlineStr"/>
+      <c r="AB8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>125628</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Pangi Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>Ipil</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 1A - with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>282032.21</v>
       </c>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="n">
         <v>250149.56</v>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>August 23, 2024</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>November 22, 2024</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>ZSY-2024HEALTH-01</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>ZSY-2024HEALTH-01</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>November 22, 2023</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>November 29, 2023</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>February 28, 2024</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>AAFIAH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="AA9" s="4" t="inlineStr">
         <is>
           <t>Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="n"/>
+      <c r="AB9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="4" t="n">
+        <v>579</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>124533</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Alvenda ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="N10" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="U10" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="X10" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="5" t="n"/>
+      <c r="AA10" s="4" t="inlineStr"/>
+      <c r="AB10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="4" t="n">
+        <v>580</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>124534</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Buena Suerte ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="N11" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="U11" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="X11" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="5" t="n"/>
+      <c r="AA11" s="4" t="inlineStr"/>
+      <c r="AB11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>581</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="E12" s="4" t="n">
         <v>124535</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Delampinas ES</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="N12" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="U12" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="X12" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="5" t="n"/>
+      <c r="AA12" s="4" t="inlineStr"/>
+      <c r="AB12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="4" t="n">
+        <v>582</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="E13" s="4" t="n">
         <v>124539</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Juan C. Dumaog Sr. ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="L13" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="N13" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="U13" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="X13" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="5" t="n"/>
+      <c r="AA13" s="4" t="inlineStr"/>
+      <c r="AB13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="4" t="n">
+        <v>583</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="E14" s="4" t="n">
         <v>124540</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Mutia CS</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="N14" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="U14" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="X14" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="5" t="n"/>
+      <c r="AA14" s="4" t="inlineStr"/>
+      <c r="AB14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="4" t="n">
+        <v>584</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="E15" s="4" t="n">
         <v>124544</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>Tinglan ES</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="L15" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="N15" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
+      <c r="P15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="U15" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="W15" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="X15" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="5" t="n"/>
+      <c r="AA15" s="4" t="inlineStr"/>
+      <c r="AB15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="4" t="n">
+        <v>585</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="E16" s="4" t="n">
         <v>124545</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Totongon ES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="L16" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="N16" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="P16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T16" s="4" t="n">
+      <c r="U16" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="X16" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr"/>
-      <c r="AA16" s="5" t="n"/>
+      <c r="AA16" s="4" t="inlineStr"/>
+      <c r="AB16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="4" t="n">
+        <v>586</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="E17" s="4" t="n">
         <v>124546</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>Tubak ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="L17" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="N17" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T17" s="4" t="n">
+      <c r="U17" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="X17" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="5" t="n"/>
+      <c r="AA17" s="4" t="inlineStr"/>
+      <c r="AB17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="4" t="n">
+        <v>587</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="E18" s="4" t="n">
         <v>314119</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Mutia NHS Extension - Alvenda</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="L18" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="N18" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="R18" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="T18" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="U18" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="V18" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="W18" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="X18" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr"/>
-      <c r="AA18" s="5" t="n"/>
+      <c r="AA18" s="4" t="inlineStr"/>
+      <c r="AB18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="4" t="n">
+        <v>588</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="E19" s="4" t="n">
         <v>303714</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Mutia NHS Annex - Tubak</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="L19" s="4" t="n">
         <v>108064.83</v>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="N19" s="4" t="n">
         <v>108064.83</v>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="R19" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="T19" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="U19" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="V19" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="W19" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="X19" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="5" t="n"/>
+      <c r="AA19" s="4" t="inlineStr"/>
+      <c r="AB19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="4" t="n">
+        <v>589</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="E20" s="4" t="n">
         <v>124738</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Bagacay ES</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="L20" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="N20" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
+      <c r="P20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="R20" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="S20" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="T20" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="U20" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U20" s="4" t="inlineStr">
+      <c r="V20" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V20" s="4" t="inlineStr">
+      <c r="W20" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="X20" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Z20" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="5" t="n"/>
+      <c r="AA20" s="4" t="inlineStr"/>
+      <c r="AB20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="4" t="n">
+        <v>590</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="E21" s="4" t="n">
         <v>124741</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>Calube ES</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="L21" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="N21" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
+      <c r="P21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="R21" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="T21" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T21" s="4" t="n">
+      <c r="U21" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="V21" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr">
+      <c r="W21" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W21" s="4" t="n">
+      <c r="X21" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="inlineStr"/>
-      <c r="AA21" s="5" t="n"/>
+      <c r="AA21" s="4" t="inlineStr"/>
+      <c r="AB21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="4" t="n">
+        <v>591</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="E22" s="4" t="n">
         <v>124743</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>Kanim ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="L22" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="N22" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
+      <c r="P22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="R22" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="S22" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="T22" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T22" s="4" t="n">
+      <c r="U22" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="V22" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="W22" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W22" s="4" t="n">
+      <c r="X22" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Z22" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr"/>
-      <c r="AA22" s="5" t="n"/>
+      <c r="AA22" s="4" t="inlineStr"/>
+      <c r="AB22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="4" t="n">
+        <v>592</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="E23" s="4" t="n">
         <v>124744</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>Libay ES</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="L23" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="N23" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
+      <c r="P23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="R23" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="S23" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S23" s="4" t="inlineStr">
+      <c r="T23" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T23" s="4" t="n">
+      <c r="U23" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U23" s="4" t="inlineStr">
+      <c r="V23" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V23" s="4" t="inlineStr">
+      <c r="W23" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W23" s="4" t="n">
+      <c r="X23" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Z23" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z23" s="4" t="inlineStr"/>
-      <c r="AA23" s="5" t="n"/>
+      <c r="AA23" s="4" t="inlineStr"/>
+      <c r="AB23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="4" t="n">
+        <v>593</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="E24" s="4" t="n">
         <v>124745</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Magsaysay ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="L24" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="N24" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
+      <c r="P24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="R24" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="S24" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S24" s="4" t="inlineStr">
+      <c r="T24" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T24" s="4" t="n">
+      <c r="U24" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U24" s="4" t="inlineStr">
+      <c r="V24" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="W24" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W24" s="4" t="n">
+      <c r="X24" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Z24" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr"/>
-      <c r="AA24" s="5" t="n"/>
+      <c r="AA24" s="4" t="inlineStr"/>
+      <c r="AB24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="4" t="n">
+        <v>594</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="E25" s="4" t="n">
         <v>124746</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Marapong ES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="L25" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="N25" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
+      <c r="P25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="R25" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="T25" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T25" s="4" t="n">
+      <c r="U25" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="V25" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="W25" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W25" s="4" t="n">
+      <c r="X25" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Z25" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="inlineStr"/>
-      <c r="AA25" s="5" t="n"/>
+      <c r="AA25" s="4" t="inlineStr"/>
+      <c r="AB25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="4" t="n">
+        <v>595</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="E26" s="4" t="n">
         <v>124748</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>Oyan ES</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="L26" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="N26" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="P26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="R26" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="S26" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="T26" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T26" s="4" t="n">
+      <c r="U26" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="V26" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="W26" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W26" s="4" t="n">
+      <c r="X26" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Z26" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr"/>
-      <c r="AA26" s="5" t="n"/>
+      <c r="AA26" s="4" t="inlineStr"/>
+      <c r="AB26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="4" t="n">
+        <v>596</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="E27" s="4" t="n">
         <v>124750</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>Sawang ES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="L27" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" s="4" t="n">
+      <c r="N27" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="R27" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="T27" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T27" s="4" t="n">
+      <c r="U27" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U27" s="4" t="inlineStr">
+      <c r="V27" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V27" s="4" t="inlineStr">
+      <c r="W27" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W27" s="4" t="n">
+      <c r="X27" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Z27" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr"/>
-      <c r="AA27" s="5" t="n"/>
+      <c r="AA27" s="4" t="inlineStr"/>
+      <c r="AB27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="4" t="n">
+        <v>597</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="E28" s="4" t="n">
         <v>124751</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>Sibutad CS</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="L28" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" s="4" t="n">
+      <c r="N28" s="4" t="n">
         <v>108568.12</v>
       </c>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="P28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="R28" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="T28" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T28" s="4" t="n">
+      <c r="U28" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="W28" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W28" s="4" t="n">
+      <c r="X28" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Z28" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="inlineStr"/>
-      <c r="AA28" s="5" t="n"/>
+      <c r="AA28" s="4" t="inlineStr"/>
+      <c r="AB28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="4" t="n">
+        <v>598</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="E29" s="4" t="n">
         <v>124753</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>Sipaloc ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="L29" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" s="4" t="n">
+      <c r="N29" s="4" t="n">
         <v>155060.65</v>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4" t="inlineStr">
+      <c r="P29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="R29" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="T29" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T29" s="4" t="n">
+      <c r="U29" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="V29" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="W29" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W29" s="4" t="n">
+      <c r="X29" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Z29" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="inlineStr"/>
-      <c r="AA29" s="5" t="n"/>
+      <c r="AA29" s="4" t="inlineStr"/>
+      <c r="AB29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="4" t="n">
+        <v>599</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="E30" s="4" t="n">
         <v>303694</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>Kanim NHS</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="L30" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" s="4" t="n">
+      <c r="N30" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4" t="inlineStr">
+      <c r="P30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="R30" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="S30" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="T30" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T30" s="4" t="n">
+      <c r="U30" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U30" s="4" t="inlineStr">
+      <c r="V30" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="W30" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W30" s="4" t="n">
+      <c r="X30" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Z30" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="inlineStr"/>
-      <c r="AA30" s="5" t="n"/>
+      <c r="AA30" s="4" t="inlineStr"/>
+      <c r="AB30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="E31" s="4" t="n">
         <v>303695</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>Sawang NHS</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="L31" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L31" s="4" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" s="4" t="n">
+      <c r="N31" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4" t="inlineStr">
+      <c r="P31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="R31" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="S31" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S31" s="4" t="inlineStr">
+      <c r="T31" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T31" s="4" t="n">
+      <c r="U31" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U31" s="4" t="inlineStr">
+      <c r="V31" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="W31" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W31" s="4" t="n">
+      <c r="X31" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="inlineStr"/>
-      <c r="AA31" s="5" t="n"/>
+      <c r="AA31" s="4" t="inlineStr"/>
+      <c r="AB31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="4" t="n">
+        <v>601</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="E32" s="4" t="n">
         <v>303737</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>Sibutad NHS</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H32" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TEN (10) - FAUCET HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="L32" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="L32" s="4" t="inlineStr">
+      <c r="M32" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" s="4" t="n">
+      <c r="N32" s="4" t="n">
         <v>156747.73</v>
       </c>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4" t="inlineStr">
+      <c r="P32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="R32" s="4" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="S32" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S32" s="4" t="inlineStr">
+      <c r="T32" s="4" t="inlineStr">
         <is>
           <t>WINS 2022 - BEFF - RIX - ZDN</t>
         </is>
       </c>
-      <c r="T32" s="4" t="n">
+      <c r="U32" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="U32" s="4" t="inlineStr">
+      <c r="V32" s="4" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="W32" s="4" t="inlineStr">
         <is>
           <t>26/04/2022</t>
         </is>
       </c>
-      <c r="W32" s="4" t="n">
+      <c r="X32" s="4" t="n">
         <v>44656</v>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="Z32" s="4" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z32" s="4" t="inlineStr"/>
-      <c r="AA32" s="5" t="n"/>
+      <c r="AA32" s="4" t="inlineStr"/>
+      <c r="AB32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="4" t="n">
+        <v>602</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="E33" s="4" t="n">
         <v>501159</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Bogo Calabat IS</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="L33" s="4" t="n">
         <v>259557.41</v>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="M33" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" s="4" t="n">
+      <c r="N33" s="4" t="n">
         <v>259557.41</v>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q33" s="4" t="n">
+      <c r="R33" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="S33" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="S33" s="4" t="inlineStr">
+      <c r="T33" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="T33" s="4" t="inlineStr">
+      <c r="U33" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U33" s="4" t="n">
+      <c r="V33" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V33" s="4" t="inlineStr">
+      <c r="W33" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W33" s="4" t="inlineStr">
+      <c r="X33" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X33" s="4" t="n">
+      <c r="Y33" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Z33" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="inlineStr"/>
-      <c r="AA33" s="5" t="n"/>
+      <c r="AA33" s="4" t="inlineStr"/>
+      <c r="AB33" s="5" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="4" t="n">
+        <v>603</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="E34" s="4" t="n">
         <v>125078</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>Dawa ES</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="L34" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" s="4" t="n">
+      <c r="N34" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q34" s="4" t="n">
+      <c r="R34" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="S34" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="S34" s="4" t="inlineStr">
+      <c r="T34" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="T34" s="4" t="inlineStr">
+      <c r="U34" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U34" s="4" t="n">
+      <c r="V34" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V34" s="4" t="inlineStr">
+      <c r="W34" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W34" s="4" t="inlineStr">
+      <c r="X34" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X34" s="4" t="n">
+      <c r="Y34" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="Z34" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="inlineStr"/>
-      <c r="AA34" s="5" t="n"/>
+      <c r="AA34" s="4" t="inlineStr"/>
+      <c r="AB34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="4" t="n">
+        <v>604</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="E35" s="4" t="n">
         <v>125080</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>Josefina CES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="L35" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="M35" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" s="4" t="n">
+      <c r="N35" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q35" s="4" t="n">
+      <c r="R35" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="S35" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="S35" s="4" t="inlineStr">
+      <c r="T35" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-02</t>
         </is>
       </c>
-      <c r="T35" s="4" t="inlineStr">
+      <c r="U35" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U35" s="4" t="n">
+      <c r="V35" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V35" s="4" t="inlineStr">
+      <c r="W35" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W35" s="4" t="inlineStr">
+      <c r="X35" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X35" s="4" t="n">
+      <c r="Y35" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Z35" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="inlineStr"/>
-      <c r="AA35" s="5" t="n"/>
+      <c r="AA35" s="4" t="inlineStr"/>
+      <c r="AB35" s="5" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="4" t="n">
+        <v>605</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="E36" s="4" t="n">
         <v>125090</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>Upper Bag-ong Tudela ES</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="G36" s="4" t="inlineStr">
         <is>
           <t>Josefina</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="L36" s="4" t="n">
         <v>259452.41</v>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="M36" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" s="4" t="n">
+      <c r="N36" s="4" t="n">
         <v>259452.41</v>
       </c>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q36" s="4" t="n">
+      <c r="R36" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="S36" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="S36" s="4" t="inlineStr">
+      <c r="T36" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-01</t>
         </is>
       </c>
-      <c r="T36" s="4" t="inlineStr">
+      <c r="U36" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U36" s="4" t="n">
+      <c r="V36" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V36" s="4" t="inlineStr">
+      <c r="W36" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W36" s="4" t="inlineStr">
+      <c r="X36" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X36" s="4" t="n">
+      <c r="Y36" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Z36" s="4" t="inlineStr">
         <is>
           <t>Chioco Builders and Supplies</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="inlineStr"/>
-      <c r="AA36" s="5" t="n"/>
+      <c r="AA36" s="4" t="inlineStr"/>
+      <c r="AB36" s="5" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="4" t="n">
+        <v>606</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="E37" s="4" t="n">
         <v>125385</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Lumangoy ES</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="L37" s="4" t="n">
         <v>258874.91</v>
       </c>
-      <c r="L37" s="4" t="inlineStr">
+      <c r="M37" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" s="4" t="n">
+      <c r="N37" s="4" t="n">
         <v>258874.91</v>
       </c>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="O37" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q37" s="4" t="n">
+      <c r="R37" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="S37" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="S37" s="4" t="inlineStr">
+      <c r="T37" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="T37" s="4" t="inlineStr">
+      <c r="U37" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U37" s="4" t="n">
+      <c r="V37" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V37" s="4" t="inlineStr">
+      <c r="W37" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W37" s="4" t="inlineStr">
+      <c r="X37" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X37" s="4" t="n">
+      <c r="Y37" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="Z37" s="4" t="inlineStr">
         <is>
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="inlineStr"/>
-      <c r="AA37" s="5" t="n"/>
+      <c r="AA37" s="4" t="inlineStr"/>
+      <c r="AB37" s="5" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="4" t="n">
+        <v>607</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="E38" s="4" t="n">
         <v>125386</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>New Carmen ES</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="L38" s="4" t="n">
         <v>258822.41</v>
       </c>
-      <c r="L38" s="4" t="inlineStr">
+      <c r="M38" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" s="4" t="n">
+      <c r="N38" s="4" t="n">
         <v>258822.41</v>
       </c>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q38" s="4" t="n">
+      <c r="R38" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S38" s="4" t="inlineStr">
+      <c r="T38" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T38" s="4" t="inlineStr">
+      <c r="U38" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U38" s="4" t="n">
+      <c r="V38" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V38" s="4" t="inlineStr">
+      <c r="W38" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W38" s="4" t="inlineStr">
+      <c r="X38" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X38" s="4" t="n">
+      <c r="Y38" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y38" s="4" t="inlineStr">
+      <c r="Z38" s="4" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="inlineStr"/>
-      <c r="AA38" s="5" t="n"/>
+      <c r="AA38" s="4" t="inlineStr"/>
+      <c r="AB38" s="5" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="4" t="n">
+        <v>608</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="E39" s="4" t="n">
         <v>196032</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>Sominot CES-SPED</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="L39" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" s="4" t="n">
+      <c r="N39" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q39" s="4" t="n">
+      <c r="R39" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R39" s="4" t="inlineStr">
+      <c r="S39" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="S39" s="4" t="inlineStr">
+      <c r="T39" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="T39" s="4" t="inlineStr">
+      <c r="U39" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U39" s="4" t="n">
+      <c r="V39" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V39" s="4" t="inlineStr">
+      <c r="W39" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W39" s="4" t="inlineStr">
+      <c r="X39" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X39" s="4" t="n">
+      <c r="Y39" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y39" s="4" t="inlineStr">
+      <c r="Z39" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z39" s="4" t="inlineStr"/>
-      <c r="AA39" s="5" t="n"/>
+      <c r="AA39" s="4" t="inlineStr"/>
+      <c r="AB39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="4" t="n">
+        <v>609</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="E40" s="4" t="n">
         <v>125395</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>Tungawan ES</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="L40" s="4" t="n">
         <v>256722.41</v>
       </c>
-      <c r="L40" s="4" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" s="4" t="n">
+      <c r="N40" s="4" t="n">
         <v>256722.41</v>
       </c>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q40" s="4" t="n">
+      <c r="R40" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R40" s="4" t="inlineStr">
+      <c r="S40" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S40" s="4" t="inlineStr">
+      <c r="T40" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T40" s="4" t="inlineStr">
+      <c r="U40" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U40" s="4" t="n">
+      <c r="V40" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V40" s="4" t="inlineStr">
+      <c r="W40" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W40" s="4" t="inlineStr">
+      <c r="X40" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X40" s="4" t="n">
+      <c r="Y40" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y40" s="4" t="inlineStr">
+      <c r="Z40" s="4" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z40" s="4" t="inlineStr"/>
-      <c r="AA40" s="5" t="n"/>
+      <c r="AA40" s="4" t="inlineStr"/>
+      <c r="AB40" s="5" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="E41" s="4" t="n">
         <v>125396</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>Upper Sicpao ES</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G41" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="L41" s="4" t="n">
         <v>256732.91</v>
       </c>
-      <c r="L41" s="4" t="inlineStr">
+      <c r="M41" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" s="4" t="n">
+      <c r="N41" s="4" t="n">
         <v>256732.91</v>
       </c>
-      <c r="N41" s="4" t="inlineStr">
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q41" s="4" t="n">
+      <c r="R41" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R41" s="4" t="inlineStr">
+      <c r="S41" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="S41" s="4" t="inlineStr">
+      <c r="T41" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-04</t>
         </is>
       </c>
-      <c r="T41" s="4" t="inlineStr">
+      <c r="U41" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U41" s="4" t="n">
+      <c r="V41" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V41" s="4" t="inlineStr">
+      <c r="W41" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W41" s="4" t="inlineStr">
+      <c r="X41" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X41" s="4" t="n">
+      <c r="Y41" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y41" s="4" t="inlineStr">
+      <c r="Z41" s="4" t="inlineStr">
         <is>
           <t>Long Island Builders &amp; Const.</t>
         </is>
       </c>
-      <c r="Z41" s="4" t="inlineStr"/>
-      <c r="AA41" s="5" t="n"/>
+      <c r="AA41" s="4" t="inlineStr"/>
+      <c r="AB41" s="5" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="4" t="n">
+        <v>611</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="E42" s="4" t="n">
         <v>125394</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>Eastern Sominot ES</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G42" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="J42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="L42" s="4" t="n">
         <v>256738.16</v>
       </c>
-      <c r="L42" s="4" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" s="4" t="n">
+      <c r="N42" s="4" t="n">
         <v>256738.16</v>
       </c>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q42" s="4" t="n">
+      <c r="R42" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R42" s="4" t="inlineStr">
+      <c r="S42" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="S42" s="4" t="inlineStr">
+      <c r="T42" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-05</t>
         </is>
       </c>
-      <c r="T42" s="4" t="inlineStr">
+      <c r="U42" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U42" s="4" t="n">
+      <c r="V42" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V42" s="4" t="inlineStr">
+      <c r="W42" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W42" s="4" t="inlineStr">
+      <c r="X42" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X42" s="4" t="n">
+      <c r="Y42" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y42" s="4" t="inlineStr">
+      <c r="Z42" s="4" t="inlineStr">
         <is>
           <t>Ayus Builders and Ent.</t>
         </is>
       </c>
-      <c r="Z42" s="4" t="inlineStr"/>
-      <c r="AA42" s="5" t="n"/>
+      <c r="AA42" s="4" t="inlineStr"/>
+      <c r="AB42" s="5" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="4" t="n">
+        <v>612</v>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="E43" s="4" t="n">
         <v>125393</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>Sominot CES</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>Sominot</t>
         </is>
       </c>
-      <c r="G43" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="L43" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="L43" s="4" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" s="4" t="n">
+      <c r="N43" s="4" t="n">
         <v>256774.91</v>
       </c>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q43" s="4" t="n">
+      <c r="R43" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="S43" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="S43" s="4" t="inlineStr">
+      <c r="T43" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-03</t>
         </is>
       </c>
-      <c r="T43" s="4" t="inlineStr">
+      <c r="U43" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U43" s="4" t="n">
+      <c r="V43" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V43" s="4" t="inlineStr">
+      <c r="W43" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W43" s="4" t="inlineStr">
+      <c r="X43" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X43" s="4" t="n">
+      <c r="Y43" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y43" s="4" t="inlineStr">
+      <c r="Z43" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z43" s="4" t="inlineStr"/>
-      <c r="AA43" s="5" t="n"/>
+      <c r="AA43" s="4" t="inlineStr"/>
+      <c r="AB43" s="5" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="4" t="n">
+        <v>613</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="E44" s="4" t="n">
         <v>125457</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>Limas ES</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="H44" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H44" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="J44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="L44" s="4" t="n">
         <v>258454.91</v>
       </c>
-      <c r="L44" s="4" t="inlineStr">
+      <c r="M44" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" s="4" t="n">
+      <c r="N44" s="4" t="n">
         <v>258454.91</v>
       </c>
-      <c r="N44" s="4" t="inlineStr">
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q44" s="4" t="n">
+      <c r="R44" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R44" s="4" t="inlineStr">
+      <c r="S44" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="S44" s="4" t="inlineStr">
+      <c r="T44" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="T44" s="4" t="inlineStr">
+      <c r="U44" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U44" s="4" t="n">
+      <c r="V44" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V44" s="4" t="inlineStr">
+      <c r="W44" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W44" s="4" t="inlineStr">
+      <c r="X44" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X44" s="4" t="n">
+      <c r="Y44" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y44" s="4" t="inlineStr">
+      <c r="Z44" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z44" s="4" t="inlineStr"/>
-      <c r="AA44" s="5" t="n"/>
+      <c r="AA44" s="4" t="inlineStr"/>
+      <c r="AB44" s="5" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="4" t="n">
+        <v>614</v>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="E45" s="4" t="n">
         <v>125459</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>Maragang ES</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="H45" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H45" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="L45" s="4" t="n">
         <v>256144.91</v>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="M45" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" s="4" t="n">
+      <c r="N45" s="4" t="n">
         <v>256144.91</v>
       </c>
-      <c r="N45" s="4" t="inlineStr">
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q45" s="4" t="n">
+      <c r="R45" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R45" s="4" t="inlineStr">
+      <c r="S45" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="S45" s="4" t="inlineStr">
+      <c r="T45" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="T45" s="4" t="inlineStr">
+      <c r="U45" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U45" s="4" t="n">
+      <c r="V45" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V45" s="4" t="inlineStr">
+      <c r="W45" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W45" s="4" t="inlineStr">
+      <c r="X45" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X45" s="4" t="n">
+      <c r="Y45" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y45" s="4" t="inlineStr">
+      <c r="Z45" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z45" s="4" t="inlineStr"/>
-      <c r="AA45" s="5" t="n"/>
+      <c r="AA45" s="4" t="inlineStr"/>
+      <c r="AB45" s="5" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="4" t="n">
+        <v>615</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="E46" s="4" t="n">
         <v>125463</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Nilo ES</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="H46" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H46" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="J46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="L46" s="4" t="n">
         <v>256165.91</v>
       </c>
-      <c r="L46" s="4" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" s="4" t="n">
+      <c r="N46" s="4" t="n">
         <v>256165.91</v>
       </c>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q46" s="4" t="n">
+      <c r="R46" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R46" s="4" t="inlineStr">
+      <c r="S46" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="S46" s="4" t="inlineStr">
+      <c r="T46" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-07</t>
         </is>
       </c>
-      <c r="T46" s="4" t="inlineStr">
+      <c r="U46" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U46" s="4" t="n">
+      <c r="V46" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V46" s="4" t="inlineStr">
+      <c r="W46" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W46" s="4" t="inlineStr">
+      <c r="X46" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X46" s="4" t="n">
+      <c r="Y46" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y46" s="4" t="inlineStr">
+      <c r="Z46" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z46" s="4" t="inlineStr"/>
-      <c r="AA46" s="5" t="n"/>
+      <c r="AA46" s="4" t="inlineStr"/>
+      <c r="AB46" s="5" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="4" t="n">
+        <v>616</v>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="E47" s="4" t="n">
         <v>125464</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>Tigbao CES</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="H47" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="J47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="L47" s="4" t="n">
         <v>256176.41</v>
       </c>
-      <c r="L47" s="4" t="inlineStr">
+      <c r="M47" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" s="4" t="n">
+      <c r="N47" s="4" t="n">
         <v>256176.41</v>
       </c>
-      <c r="N47" s="4" t="inlineStr">
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q47" s="4" t="n">
+      <c r="R47" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R47" s="4" t="inlineStr">
+      <c r="S47" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="S47" s="4" t="inlineStr">
+      <c r="T47" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="T47" s="4" t="inlineStr">
+      <c r="U47" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U47" s="4" t="n">
+      <c r="V47" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V47" s="4" t="inlineStr">
+      <c r="W47" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W47" s="4" t="inlineStr">
+      <c r="X47" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X47" s="4" t="n">
+      <c r="Y47" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y47" s="4" t="inlineStr">
+      <c r="Z47" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z47" s="4" t="inlineStr"/>
-      <c r="AA47" s="5" t="n"/>
+      <c r="AA47" s="4" t="inlineStr"/>
+      <c r="AB47" s="5" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="4" t="n">
+        <v>617</v>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="E48" s="4" t="n">
         <v>125465</v>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>Timolan ES</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="H48" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H48" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="J48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="L48" s="4" t="n">
         <v>258664.91</v>
       </c>
-      <c r="L48" s="4" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" s="4" t="n">
+      <c r="N48" s="4" t="n">
         <v>258664.91</v>
       </c>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O48" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q48" s="4" t="n">
+      <c r="R48" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R48" s="4" t="inlineStr">
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-09</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr">
+      <c r="U48" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U48" s="4" t="n">
+      <c r="V48" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V48" s="4" t="inlineStr">
+      <c r="W48" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W48" s="4" t="inlineStr">
+      <c r="X48" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X48" s="4" t="n">
+      <c r="Y48" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y48" s="4" t="inlineStr">
+      <c r="Z48" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z48" s="4" t="inlineStr"/>
-      <c r="AA48" s="5" t="n"/>
+      <c r="AA48" s="4" t="inlineStr"/>
+      <c r="AB48" s="5" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="4" t="n">
+        <v>618</v>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="E49" s="4" t="n">
         <v>125467</v>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Woodland ES</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="H49" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="J49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K49" s="4" t="n">
+      <c r="L49" s="4" t="n">
         <v>258507.41</v>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" s="4" t="n">
+      <c r="N49" s="4" t="n">
         <v>258507.41</v>
       </c>
-      <c r="N49" s="4" t="inlineStr">
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q49" s="4" t="n">
+      <c r="R49" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R49" s="4" t="inlineStr">
+      <c r="S49" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="S49" s="4" t="inlineStr">
+      <c r="T49" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="T49" s="4" t="inlineStr">
+      <c r="U49" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U49" s="4" t="n">
+      <c r="V49" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V49" s="4" t="inlineStr">
+      <c r="W49" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W49" s="4" t="inlineStr">
+      <c r="X49" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X49" s="4" t="n">
+      <c r="Y49" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y49" s="4" t="inlineStr">
+      <c r="Z49" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z49" s="4" t="inlineStr"/>
-      <c r="AA49" s="5" t="n"/>
+      <c r="AA49" s="4" t="inlineStr"/>
+      <c r="AB49" s="5" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="4" t="n">
+        <v>619</v>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="E50" s="4" t="n">
         <v>303753</v>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>Antonio NHS</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="G50" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G50" s="4" t="n">
+      <c r="H50" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="J50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K50" s="4" t="n">
+      <c r="L50" s="4" t="n">
         <v>256186.91</v>
       </c>
-      <c r="L50" s="4" t="inlineStr">
+      <c r="M50" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" s="4" t="n">
+      <c r="N50" s="4" t="n">
         <v>256186.91</v>
       </c>
-      <c r="N50" s="4" t="inlineStr">
+      <c r="O50" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O50" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q50" s="4" t="n">
+      <c r="R50" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R50" s="4" t="inlineStr">
+      <c r="S50" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="T50" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-08</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr">
+      <c r="U50" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U50" s="4" t="n">
+      <c r="V50" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V50" s="4" t="inlineStr">
+      <c r="W50" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W50" s="4" t="inlineStr">
+      <c r="X50" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X50" s="4" t="n">
+      <c r="Y50" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y50" s="4" t="inlineStr">
+      <c r="Z50" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z50" s="4" t="inlineStr"/>
-      <c r="AA50" s="5" t="n"/>
+      <c r="AA50" s="4" t="inlineStr"/>
+      <c r="AB50" s="5" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="4" t="n">
+        <v>620</v>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="E51" s="4" t="n">
         <v>303821</v>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>Tigbao NHS</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>Tigbao</t>
         </is>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="H51" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="J51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K51" s="4" t="n">
+      <c r="L51" s="4" t="n">
         <v>256197.41</v>
       </c>
-      <c r="L51" s="4" t="inlineStr">
+      <c r="M51" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" s="4" t="n">
+      <c r="N51" s="4" t="n">
         <v>256197.41</v>
       </c>
-      <c r="N51" s="4" t="inlineStr">
+      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O51" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q51" s="4" t="n">
+      <c r="R51" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R51" s="4" t="inlineStr">
+      <c r="S51" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="S51" s="4" t="inlineStr">
+      <c r="T51" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-06</t>
         </is>
       </c>
-      <c r="T51" s="4" t="inlineStr">
+      <c r="U51" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U51" s="4" t="n">
+      <c r="V51" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V51" s="4" t="inlineStr">
+      <c r="W51" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W51" s="4" t="inlineStr">
+      <c r="X51" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X51" s="4" t="n">
+      <c r="Y51" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y51" s="4" t="inlineStr">
+      <c r="Z51" s="4" t="inlineStr">
         <is>
           <t>JZ Mago Construction &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z51" s="4" t="inlineStr"/>
-      <c r="AA51" s="5" t="n"/>
+      <c r="AA51" s="4" t="inlineStr"/>
+      <c r="AB51" s="5" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="4" t="n">
+        <v>621</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="E52" s="4" t="n">
         <v>125498</v>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>Kapatagan ES</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="G52" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G52" s="4" t="n">
+      <c r="H52" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="J52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K52" s="4" t="n">
+      <c r="L52" s="4" t="n">
         <v>259504.91</v>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="M52" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" s="4" t="n">
+      <c r="N52" s="4" t="n">
         <v>259504.91</v>
       </c>
-      <c r="N52" s="4" t="inlineStr">
+      <c r="O52" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O52" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q52" s="4" t="n">
+      <c r="R52" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R52" s="4" t="inlineStr">
+      <c r="S52" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="S52" s="4" t="inlineStr">
+      <c r="T52" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="T52" s="4" t="inlineStr">
+      <c r="U52" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U52" s="4" t="n">
+      <c r="V52" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V52" s="4" t="inlineStr">
+      <c r="W52" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W52" s="4" t="inlineStr">
+      <c r="X52" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X52" s="4" t="n">
+      <c r="Y52" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y52" s="4" t="inlineStr">
+      <c r="Z52" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z52" s="4" t="inlineStr"/>
-      <c r="AA52" s="5" t="n"/>
+      <c r="AA52" s="4" t="inlineStr"/>
+      <c r="AB52" s="5" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="4" t="n">
+        <v>622</v>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="E53" s="4" t="n">
         <v>125499</v>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t>Limason ES</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="G53" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G53" s="4" t="n">
+      <c r="H53" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H53" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="J53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K53" s="4" t="n">
+      <c r="L53" s="4" t="n">
         <v>259410.41</v>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="M53" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" s="4" t="n">
+      <c r="N53" s="4" t="n">
         <v>259410.41</v>
       </c>
-      <c r="N53" s="4" t="inlineStr">
+      <c r="O53" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O53" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q53" s="4" t="n">
+      <c r="R53" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R53" s="4" t="inlineStr">
+      <c r="S53" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="S53" s="4" t="inlineStr">
+      <c r="T53" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr">
+      <c r="U53" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U53" s="4" t="n">
+      <c r="V53" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V53" s="4" t="inlineStr">
+      <c r="W53" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W53" s="4" t="inlineStr">
+      <c r="X53" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X53" s="4" t="n">
+      <c r="Y53" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y53" s="4" t="inlineStr">
+      <c r="Z53" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z53" s="4" t="inlineStr"/>
-      <c r="AA53" s="5" t="n"/>
+      <c r="AA53" s="4" t="inlineStr"/>
+      <c r="AB53" s="5" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="4" t="n">
+        <v>623</v>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="E54" s="4" t="n">
         <v>125500</v>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>Linoguayan ES</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="G54" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="H54" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H54" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J54" s="4" t="inlineStr">
+      <c r="J54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K54" s="4" t="n">
+      <c r="L54" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="L54" s="4" t="inlineStr">
+      <c r="M54" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" s="4" t="n">
+      <c r="N54" s="4" t="n">
         <v>259399.91</v>
       </c>
-      <c r="N54" s="4" t="inlineStr">
+      <c r="O54" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O54" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q54" s="4" t="n">
+      <c r="R54" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R54" s="4" t="inlineStr">
+      <c r="S54" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="S54" s="4" t="inlineStr">
+      <c r="T54" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="T54" s="4" t="inlineStr">
+      <c r="U54" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U54" s="4" t="n">
+      <c r="V54" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V54" s="4" t="inlineStr">
+      <c r="W54" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W54" s="4" t="inlineStr">
+      <c r="X54" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X54" s="4" t="n">
+      <c r="Y54" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y54" s="4" t="inlineStr">
+      <c r="Z54" s="4" t="inlineStr">
         <is>
           <t>AJT Construction</t>
         </is>
       </c>
-      <c r="Z54" s="4" t="inlineStr"/>
-      <c r="AA54" s="5" t="n"/>
+      <c r="AA54" s="4" t="inlineStr"/>
+      <c r="AB54" s="5" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="4" t="n">
+        <v>624</v>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="E55" s="4" t="n">
         <v>125502</v>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>Lunib ES</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="G55" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G55" s="4" t="n">
+      <c r="H55" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H55" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="J55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K55" s="4" t="n">
+      <c r="L55" s="4" t="n">
         <v>259378.91</v>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" s="4" t="n">
+      <c r="N55" s="4" t="n">
         <v>259378.91</v>
       </c>
-      <c r="N55" s="4" t="inlineStr">
+      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q55" s="4" t="n">
+      <c r="R55" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R55" s="4" t="inlineStr">
+      <c r="S55" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="S55" s="4" t="inlineStr">
+      <c r="T55" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-12</t>
         </is>
       </c>
-      <c r="T55" s="4" t="inlineStr">
+      <c r="U55" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U55" s="4" t="n">
+      <c r="V55" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V55" s="4" t="inlineStr">
+      <c r="W55" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W55" s="4" t="inlineStr">
+      <c r="X55" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X55" s="4" t="n">
+      <c r="Y55" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y55" s="4" t="inlineStr">
+      <c r="Z55" s="4" t="inlineStr">
         <is>
           <t>AJT Construction</t>
         </is>
       </c>
-      <c r="Z55" s="4" t="inlineStr"/>
-      <c r="AA55" s="5" t="n"/>
+      <c r="AA55" s="4" t="inlineStr"/>
+      <c r="AB55" s="5" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="4" t="n">
+        <v>625</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="E56" s="4" t="n">
         <v>125507</v>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>Vincenzo Sagun CES</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="G56" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G56" s="4" t="n">
+      <c r="H56" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H56" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K56" s="4" t="n">
+      <c r="L56" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" s="4" t="n">
+      <c r="N56" s="4" t="n">
         <v>257509.91</v>
       </c>
-      <c r="N56" s="4" t="inlineStr">
+      <c r="O56" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q56" s="4" t="n">
+      <c r="R56" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R56" s="4" t="inlineStr">
+      <c r="S56" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="S56" s="4" t="inlineStr">
+      <c r="T56" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-11</t>
         </is>
       </c>
-      <c r="T56" s="4" t="inlineStr">
+      <c r="U56" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U56" s="4" t="n">
+      <c r="V56" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V56" s="4" t="inlineStr">
+      <c r="W56" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W56" s="4" t="inlineStr">
+      <c r="X56" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X56" s="4" t="n">
+      <c r="Y56" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y56" s="4" t="inlineStr">
+      <c r="Z56" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z56" s="4" t="inlineStr"/>
-      <c r="AA56" s="5" t="n"/>
+      <c r="AA56" s="4" t="inlineStr"/>
+      <c r="AB56" s="5" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="4" t="n">
+        <v>626</v>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="E57" s="4" t="n">
         <v>303765</v>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Cogon NHS</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>Vincenzo A. Sagun</t>
         </is>
       </c>
-      <c r="G57" s="4" t="n">
+      <c r="H57" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H57" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J57" s="4" t="inlineStr">
+      <c r="J57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K57" s="4" t="n">
+      <c r="L57" s="4" t="n">
         <v>257404.91</v>
       </c>
-      <c r="L57" s="4" t="inlineStr">
+      <c r="M57" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" s="4" t="n">
+      <c r="N57" s="4" t="n">
         <v>257404.91</v>
       </c>
-      <c r="N57" s="4" t="inlineStr">
+      <c r="O57" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O57" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="Q57" s="4" t="n">
+      <c r="R57" s="4" t="n">
         <v>44812</v>
       </c>
-      <c r="R57" s="4" t="inlineStr">
+      <c r="S57" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="S57" s="4" t="inlineStr">
+      <c r="T57" s="4" t="inlineStr">
         <is>
           <t>ZDS-22-HWF-10</t>
         </is>
       </c>
-      <c r="T57" s="4" t="inlineStr">
+      <c r="U57" s="4" t="inlineStr">
         <is>
           <t>25/03/2022</t>
         </is>
       </c>
-      <c r="U57" s="4" t="n">
+      <c r="V57" s="4" t="n">
         <v>44565</v>
       </c>
-      <c r="V57" s="4" t="inlineStr">
+      <c r="W57" s="4" t="inlineStr">
         <is>
           <t>22/04/2022</t>
         </is>
       </c>
-      <c r="W57" s="4" t="inlineStr">
+      <c r="X57" s="4" t="inlineStr">
         <is>
           <t>16/06/2022</t>
         </is>
       </c>
-      <c r="X57" s="4" t="n">
+      <c r="Y57" s="4" t="n">
         <v>44658</v>
       </c>
-      <c r="Y57" s="4" t="inlineStr">
+      <c r="Z57" s="4" t="inlineStr">
         <is>
           <t>Cpin Builders</t>
         </is>
       </c>
-      <c r="Z57" s="4" t="inlineStr"/>
-      <c r="AA57" s="5" t="n"/>
+      <c r="AA57" s="4" t="inlineStr"/>
+      <c r="AB57" s="5" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="4" t="n">
+        <v>627</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="E58" s="4" t="n">
         <v>125854</v>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>Talusan CES</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="G58" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G58" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H58" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J58" s="4" t="inlineStr">
+      <c r="J58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K58" s="4" t="n">
+      <c r="L58" s="4" t="n">
         <v>235553.07</v>
       </c>
-      <c r="L58" s="4" t="inlineStr">
+      <c r="M58" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M58" s="4" t="n">
+      <c r="N58" s="4" t="n">
         <v>235553.07</v>
       </c>
-      <c r="N58" s="4" t="inlineStr">
+      <c r="O58" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="4" t="inlineStr">
+      <c r="P58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q58" s="4" t="n">
+      <c r="R58" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R58" s="4" t="inlineStr">
+      <c r="S58" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S58" s="4" t="inlineStr">
+      <c r="T58" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T58" s="4" t="inlineStr">
+      <c r="U58" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U58" s="4" t="inlineStr">
+      <c r="V58" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V58" s="4" t="n">
+      <c r="W58" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W58" s="4" t="inlineStr">
+      <c r="X58" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X58" s="4" t="inlineStr">
+      <c r="Y58" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y58" s="4" t="inlineStr">
+      <c r="Z58" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z58" s="4" t="inlineStr"/>
-      <c r="AA58" s="5" t="n"/>
+      <c r="AA58" s="4" t="inlineStr"/>
+      <c r="AB58" s="5" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="4" t="n">
+        <v>628</v>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="E59" s="4" t="n">
         <v>125843</v>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>Baganipay ES</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="G59" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G59" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H59" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="J59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K59" s="4" t="n">
+      <c r="L59" s="4" t="n">
         <v>238178.33</v>
       </c>
-      <c r="L59" s="4" t="inlineStr">
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M59" s="4" t="n">
+      <c r="N59" s="4" t="n">
         <v>238178.33</v>
       </c>
-      <c r="N59" s="4" t="inlineStr">
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="4" t="inlineStr">
+      <c r="P59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q59" s="4" t="n">
+      <c r="R59" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R59" s="4" t="inlineStr">
+      <c r="S59" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S59" s="4" t="inlineStr">
+      <c r="T59" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T59" s="4" t="inlineStr">
+      <c r="U59" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U59" s="4" t="inlineStr">
+      <c r="V59" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V59" s="4" t="n">
+      <c r="W59" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W59" s="4" t="inlineStr">
+      <c r="X59" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X59" s="4" t="inlineStr">
+      <c r="Y59" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y59" s="4" t="inlineStr">
+      <c r="Z59" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z59" s="4" t="inlineStr"/>
-      <c r="AA59" s="5" t="n"/>
+      <c r="AA59" s="4" t="inlineStr"/>
+      <c r="AB59" s="5" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="4" t="n">
+        <v>629</v>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="E60" s="4" t="n">
         <v>125853</v>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Samonte ES</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="G60" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G60" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H60" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I60" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J60" s="4" t="inlineStr">
+      <c r="J60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K60" s="4" t="n">
+      <c r="L60" s="4" t="n">
         <v>242903.07</v>
       </c>
-      <c r="L60" s="4" t="inlineStr">
+      <c r="M60" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M60" s="4" t="n">
+      <c r="N60" s="4" t="n">
         <v>242903.07</v>
       </c>
-      <c r="N60" s="4" t="inlineStr">
+      <c r="O60" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="4" t="inlineStr">
+      <c r="P60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q60" s="4" t="n">
+      <c r="R60" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R60" s="4" t="inlineStr">
+      <c r="S60" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S60" s="4" t="inlineStr">
+      <c r="T60" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T60" s="4" t="inlineStr">
+      <c r="U60" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U60" s="4" t="inlineStr">
+      <c r="V60" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V60" s="4" t="n">
+      <c r="W60" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W60" s="4" t="inlineStr">
+      <c r="X60" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X60" s="4" t="inlineStr">
+      <c r="Y60" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y60" s="4" t="inlineStr">
+      <c r="Z60" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z60" s="4" t="inlineStr"/>
-      <c r="AA60" s="5" t="n"/>
+      <c r="AA60" s="4" t="inlineStr"/>
+      <c r="AB60" s="5" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="4" t="n">
+        <v>630</v>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="E61" s="4" t="n">
         <v>125848</v>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t>Kawilan ES</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G61" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H61" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I61" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J61" s="4" t="inlineStr">
+      <c r="J61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K61" s="4" t="n">
+      <c r="L61" s="4" t="n">
         <v>245570.59</v>
       </c>
-      <c r="L61" s="4" t="inlineStr">
+      <c r="M61" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M61" s="4" t="n">
+      <c r="N61" s="4" t="n">
         <v>245570.59</v>
       </c>
-      <c r="N61" s="4" t="inlineStr">
+      <c r="O61" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="4" t="inlineStr">
+      <c r="P61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q61" s="4" t="n">
+      <c r="R61" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R61" s="4" t="inlineStr">
+      <c r="S61" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S61" s="4" t="inlineStr">
+      <c r="T61" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T61" s="4" t="inlineStr">
+      <c r="U61" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U61" s="4" t="inlineStr">
+      <c r="V61" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V61" s="4" t="n">
+      <c r="W61" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W61" s="4" t="inlineStr">
+      <c r="X61" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X61" s="4" t="inlineStr">
+      <c r="Y61" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y61" s="4" t="inlineStr">
+      <c r="Z61" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z61" s="4" t="inlineStr"/>
-      <c r="AA61" s="5" t="n"/>
+      <c r="AA61" s="4" t="inlineStr"/>
+      <c r="AB61" s="5" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="4" t="n">
+        <v>631</v>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="E62" s="4" t="n">
         <v>125852</v>
       </c>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t>Sagay ES</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="G62" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G62" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H62" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I62" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J62" s="4" t="inlineStr">
+      <c r="J62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K62" s="4" t="n">
+      <c r="L62" s="4" t="n">
         <v>249780.83</v>
       </c>
-      <c r="L62" s="4" t="inlineStr">
+      <c r="M62" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M62" s="4" t="n">
+      <c r="N62" s="4" t="n">
         <v>249780.83</v>
       </c>
-      <c r="N62" s="4" t="inlineStr">
+      <c r="O62" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="4" t="inlineStr">
+      <c r="P62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q62" s="4" t="n">
+      <c r="R62" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R62" s="4" t="inlineStr">
+      <c r="S62" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="T62" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T62" s="4" t="inlineStr">
+      <c r="U62" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U62" s="4" t="inlineStr">
+      <c r="V62" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V62" s="4" t="n">
+      <c r="W62" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W62" s="4" t="inlineStr">
+      <c r="X62" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X62" s="4" t="inlineStr">
+      <c r="Y62" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y62" s="4" t="inlineStr">
+      <c r="Z62" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z62" s="4" t="inlineStr"/>
-      <c r="AA62" s="5" t="n"/>
+      <c r="AA62" s="4" t="inlineStr"/>
+      <c r="AB62" s="5" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="4" t="n">
+        <v>632</v>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="E63" s="4" t="n">
         <v>125842</v>
       </c>
-      <c r="E63" s="4" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t>Aurora PS</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="G63" s="4" t="inlineStr">
         <is>
           <t>Talusan</t>
         </is>
       </c>
-      <c r="G63" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H63" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I63" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J63" s="4" t="inlineStr">
+      <c r="J63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K63" s="4" t="n">
+      <c r="L63" s="4" t="n">
         <v>251849.59</v>
       </c>
-      <c r="L63" s="4" t="inlineStr">
+      <c r="M63" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M63" s="4" t="n">
+      <c r="N63" s="4" t="n">
         <v>251849.59</v>
       </c>
-      <c r="N63" s="4" t="inlineStr">
+      <c r="O63" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="4" t="inlineStr">
+      <c r="P63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4" t="inlineStr">
         <is>
           <t>28/08/2022</t>
         </is>
       </c>
-      <c r="Q63" s="4" t="n">
+      <c r="R63" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="R63" s="4" t="inlineStr">
+      <c r="S63" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="S63" s="4" t="inlineStr">
+      <c r="T63" s="4" t="inlineStr">
         <is>
           <t>ZSY-2022H-01</t>
         </is>
       </c>
-      <c r="T63" s="4" t="inlineStr">
+      <c r="U63" s="4" t="inlineStr">
         <is>
           <t>19/03/2022</t>
         </is>
       </c>
-      <c r="U63" s="4" t="inlineStr">
+      <c r="V63" s="4" t="inlineStr">
         <is>
           <t>28/03/2022</t>
         </is>
       </c>
-      <c r="V63" s="4" t="n">
+      <c r="W63" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="W63" s="4" t="inlineStr">
+      <c r="X63" s="4" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="X63" s="4" t="inlineStr">
+      <c r="Y63" s="4" t="inlineStr">
         <is>
           <t>22/06/2022</t>
         </is>
       </c>
-      <c r="Y63" s="4" t="inlineStr">
+      <c r="Z63" s="4" t="inlineStr">
         <is>
           <t>Sibugay RGT Construction Inc.</t>
         </is>
       </c>
-      <c r="Z63" s="4" t="inlineStr"/>
-      <c r="AA63" s="5" t="n"/>
+      <c r="AA63" s="4" t="inlineStr"/>
+      <c r="AB63" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA63" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB63" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
